--- a/DSMCaseReasoning/src/cases.xlsx
+++ b/DSMCaseReasoning/src/cases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA32F411-5814-4960-8C22-B1DC659A7102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF33AB4-69B3-44D8-B1F9-9E5364A212E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2528" yWindow="1500" windowWidth="16199" windowHeight="9308" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="10" r:id="rId1"/>
-    <sheet name="Envs" sheetId="11" r:id="rId2"/>
+    <sheet name="formalization" sheetId="12" r:id="rId2"/>
+    <sheet name="Envs" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cases!$E$1:$E$190</definedName>
@@ -216,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="262">
   <si>
     <t>ID</t>
   </si>
@@ -1112,6 +1113,34 @@
   </si>
   <si>
     <t>Slope length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discrete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevationD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,8 +1148,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1292,7 +1322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1334,6 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1616,24 +1647,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4B5E7B-DB16-460C-8634-EAB54F114957}">
   <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="F195" sqref="F195"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.796875" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
+    <col min="8" max="8" width="17.1328125" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1"/>
+    <col min="10" max="10" width="18.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1696,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1697,7 +1728,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1729,7 +1760,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1761,7 +1792,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1793,7 +1824,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1825,7 +1856,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1857,7 +1888,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1889,7 +1920,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1921,7 +1952,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>23</v>
       </c>
@@ -1953,7 +1984,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>24</v>
       </c>
@@ -1985,7 +2016,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>25</v>
       </c>
@@ -2017,7 +2048,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>26</v>
       </c>
@@ -2049,7 +2080,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>27</v>
       </c>
@@ -2081,7 +2112,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>30</v>
       </c>
@@ -2113,7 +2144,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>31</v>
       </c>
@@ -2145,7 +2176,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>32</v>
       </c>
@@ -2177,7 +2208,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>33</v>
       </c>
@@ -2209,7 +2240,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>34</v>
       </c>
@@ -2241,7 +2272,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>35</v>
       </c>
@@ -2273,7 +2304,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>38</v>
       </c>
@@ -2305,7 +2336,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>39</v>
       </c>
@@ -2337,7 +2368,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>41</v>
       </c>
@@ -2369,7 +2400,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>42</v>
       </c>
@@ -2401,7 +2432,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>43</v>
       </c>
@@ -2433,7 +2464,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>44</v>
       </c>
@@ -2465,7 +2496,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>45</v>
       </c>
@@ -2497,7 +2528,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>46</v>
       </c>
@@ -2529,7 +2560,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>47</v>
       </c>
@@ -2561,7 +2592,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>51</v>
       </c>
@@ -2593,7 +2624,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>52</v>
       </c>
@@ -2625,7 +2656,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>53</v>
       </c>
@@ -2657,7 +2688,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>54</v>
       </c>
@@ -2689,7 +2720,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>55</v>
       </c>
@@ -2721,7 +2752,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>56</v>
       </c>
@@ -2753,7 +2784,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>57</v>
       </c>
@@ -2785,7 +2816,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>58</v>
       </c>
@@ -2817,7 +2848,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>59</v>
       </c>
@@ -2849,7 +2880,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>60</v>
       </c>
@@ -2881,7 +2912,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>62</v>
       </c>
@@ -2913,7 +2944,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>63</v>
       </c>
@@ -2945,7 +2976,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>64</v>
       </c>
@@ -2977,7 +3008,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>65</v>
       </c>
@@ -3009,7 +3040,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>66</v>
       </c>
@@ -3041,7 +3072,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>67</v>
       </c>
@@ -3073,7 +3104,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>68</v>
       </c>
@@ -3105,7 +3136,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>69</v>
       </c>
@@ -3137,7 +3168,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>71</v>
       </c>
@@ -3169,7 +3200,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>72</v>
       </c>
@@ -3201,7 +3232,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>73</v>
       </c>
@@ -3233,7 +3264,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>74</v>
       </c>
@@ -3265,7 +3296,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>75</v>
       </c>
@@ -3297,7 +3328,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>76</v>
       </c>
@@ -3329,7 +3360,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>78</v>
       </c>
@@ -3361,7 +3392,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>79</v>
       </c>
@@ -3393,7 +3424,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>80</v>
       </c>
@@ -3425,7 +3456,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>81</v>
       </c>
@@ -3457,7 +3488,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>82</v>
       </c>
@@ -3489,7 +3520,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>83</v>
       </c>
@@ -3521,7 +3552,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>84</v>
       </c>
@@ -3553,7 +3584,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>85</v>
       </c>
@@ -3585,7 +3616,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>86</v>
       </c>
@@ -3617,7 +3648,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>87</v>
       </c>
@@ -3649,7 +3680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>88</v>
       </c>
@@ -3681,7 +3712,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>89</v>
       </c>
@@ -3713,7 +3744,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>103</v>
       </c>
@@ -3745,7 +3776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>104</v>
       </c>
@@ -3777,7 +3808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>105</v>
       </c>
@@ -3809,7 +3840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>106</v>
       </c>
@@ -3841,7 +3872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>113</v>
       </c>
@@ -3873,7 +3904,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>114</v>
       </c>
@@ -3905,7 +3936,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>115</v>
       </c>
@@ -3937,7 +3968,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>116</v>
       </c>
@@ -3969,7 +4000,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>117</v>
       </c>
@@ -4001,7 +4032,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>118</v>
       </c>
@@ -4033,7 +4064,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>119</v>
       </c>
@@ -4065,7 +4096,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>120</v>
       </c>
@@ -4097,7 +4128,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>121</v>
       </c>
@@ -4129,7 +4160,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>122</v>
       </c>
@@ -4161,7 +4192,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>123</v>
       </c>
@@ -4193,7 +4224,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>124</v>
       </c>
@@ -4225,7 +4256,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>125</v>
       </c>
@@ -4257,7 +4288,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>127</v>
       </c>
@@ -4289,7 +4320,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>128</v>
       </c>
@@ -4321,7 +4352,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>129</v>
       </c>
@@ -4353,7 +4384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>130</v>
       </c>
@@ -4385,7 +4416,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>131</v>
       </c>
@@ -4417,7 +4448,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>132</v>
       </c>
@@ -4449,7 +4480,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>133</v>
       </c>
@@ -4481,7 +4512,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>134</v>
       </c>
@@ -4513,7 +4544,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>135</v>
       </c>
@@ -4545,7 +4576,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>136</v>
       </c>
@@ -4577,7 +4608,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>138</v>
       </c>
@@ -4609,7 +4640,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>139</v>
       </c>
@@ -4641,7 +4672,7 @@
         <v>4718</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>141</v>
       </c>
@@ -4673,7 +4704,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>143</v>
       </c>
@@ -4705,7 +4736,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>144</v>
       </c>
@@ -4737,7 +4768,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>145</v>
       </c>
@@ -4769,7 +4800,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>147</v>
       </c>
@@ -4801,7 +4832,7 @@
         <v>658.7</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>149</v>
       </c>
@@ -4833,7 +4864,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>150</v>
       </c>
@@ -4865,7 +4896,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>151</v>
       </c>
@@ -4897,7 +4928,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>152</v>
       </c>
@@ -4929,7 +4960,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>153</v>
       </c>
@@ -4961,7 +4992,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>154</v>
       </c>
@@ -4993,7 +5024,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>155</v>
       </c>
@@ -5025,7 +5056,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>156</v>
       </c>
@@ -5057,7 +5088,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>157</v>
       </c>
@@ -5089,7 +5120,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>158</v>
       </c>
@@ -5121,7 +5152,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>159</v>
       </c>
@@ -5153,7 +5184,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>160</v>
       </c>
@@ -5185,7 +5216,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>166</v>
       </c>
@@ -5217,7 +5248,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>167</v>
       </c>
@@ -5249,7 +5280,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>168</v>
       </c>
@@ -5281,7 +5312,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>169</v>
       </c>
@@ -5313,7 +5344,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>170</v>
       </c>
@@ -5345,7 +5376,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>174</v>
       </c>
@@ -5377,7 +5408,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>175</v>
       </c>
@@ -5409,7 +5440,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>176</v>
       </c>
@@ -5441,7 +5472,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>177</v>
       </c>
@@ -5473,7 +5504,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>178</v>
       </c>
@@ -5505,7 +5536,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>179</v>
       </c>
@@ -5537,7 +5568,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>180</v>
       </c>
@@ -5569,7 +5600,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>181</v>
       </c>
@@ -5601,7 +5632,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>182</v>
       </c>
@@ -5633,7 +5664,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>183</v>
       </c>
@@ -5665,7 +5696,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>184</v>
       </c>
@@ -5697,7 +5728,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>185</v>
       </c>
@@ -5729,7 +5760,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>186</v>
       </c>
@@ -5761,7 +5792,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>187</v>
       </c>
@@ -5793,7 +5824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>188</v>
       </c>
@@ -5825,7 +5856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>189</v>
       </c>
@@ -5857,7 +5888,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>190</v>
       </c>
@@ -5889,7 +5920,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>191</v>
       </c>
@@ -5921,7 +5952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>197</v>
       </c>
@@ -5953,7 +5984,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>198</v>
       </c>
@@ -5985,7 +6016,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>199</v>
       </c>
@@ -6017,7 +6048,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>200</v>
       </c>
@@ -6049,7 +6080,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>201</v>
       </c>
@@ -6081,7 +6112,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>202</v>
       </c>
@@ -6113,7 +6144,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>203</v>
       </c>
@@ -6145,7 +6176,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>204</v>
       </c>
@@ -6177,7 +6208,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>205</v>
       </c>
@@ -6209,7 +6240,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>206</v>
       </c>
@@ -6241,7 +6272,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>207</v>
       </c>
@@ -6273,7 +6304,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>208</v>
       </c>
@@ -6305,7 +6336,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>209</v>
       </c>
@@ -6337,7 +6368,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>210</v>
       </c>
@@ -6369,7 +6400,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>211</v>
       </c>
@@ -6401,7 +6432,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>212</v>
       </c>
@@ -6433,7 +6464,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>213</v>
       </c>
@@ -6465,7 +6496,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>214</v>
       </c>
@@ -6497,7 +6528,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>215</v>
       </c>
@@ -6529,7 +6560,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>216</v>
       </c>
@@ -6561,7 +6592,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>217</v>
       </c>
@@ -6593,7 +6624,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>218</v>
       </c>
@@ -6625,7 +6656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>219</v>
       </c>
@@ -6657,7 +6688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>220</v>
       </c>
@@ -6689,7 +6720,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>221</v>
       </c>
@@ -6721,7 +6752,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>222</v>
       </c>
@@ -6753,7 +6784,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>223</v>
       </c>
@@ -6785,7 +6816,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>224</v>
       </c>
@@ -6817,7 +6848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>225</v>
       </c>
@@ -6849,7 +6880,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>226</v>
       </c>
@@ -6881,7 +6912,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>227</v>
       </c>
@@ -6913,7 +6944,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>228</v>
       </c>
@@ -6945,7 +6976,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>229</v>
       </c>
@@ -6977,7 +7008,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>230</v>
       </c>
@@ -7009,7 +7040,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>231</v>
       </c>
@@ -7041,7 +7072,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>232</v>
       </c>
@@ -7073,7 +7104,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>233</v>
       </c>
@@ -7105,7 +7136,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>234</v>
       </c>
@@ -7137,7 +7168,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>235</v>
       </c>
@@ -7169,7 +7200,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>236</v>
       </c>
@@ -7201,7 +7232,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>237</v>
       </c>
@@ -7233,7 +7264,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>238</v>
       </c>
@@ -7265,7 +7296,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>239</v>
       </c>
@@ -7297,7 +7328,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>240</v>
       </c>
@@ -7329,7 +7360,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>248</v>
       </c>
@@ -7361,7 +7392,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>249</v>
       </c>
@@ -7393,7 +7424,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>250</v>
       </c>
@@ -7425,7 +7456,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>251</v>
       </c>
@@ -7457,7 +7488,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>252</v>
       </c>
@@ -7489,7 +7520,7 @@
         <v>87.316000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>253</v>
       </c>
@@ -7521,7 +7552,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>254</v>
       </c>
@@ -7553,7 +7584,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>255</v>
       </c>
@@ -7585,7 +7616,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>256</v>
       </c>
@@ -7617,7 +7648,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>257</v>
       </c>
@@ -7649,7 +7680,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>258</v>
       </c>
@@ -7681,7 +7712,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>259</v>
       </c>
@@ -7724,40 +7755,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B55686D-E9BA-4AA5-919E-3E3ED25FC328}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="23">
+        <v>200</v>
+      </c>
+      <c r="C3" s="23">
+        <v>200</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G3" s="23">
+        <v>2</v>
+      </c>
+      <c r="H3" s="23">
+        <v>20</v>
+      </c>
+      <c r="I3" s="23">
+        <v>8848</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B7A103-8910-40A2-A97F-D6DE2A9F3FC6}">
   <dimension ref="A1:X190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.1328125" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" customWidth="1"/>
+    <col min="5" max="5" width="32.86328125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.86328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.46484375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.46484375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7831,7 +7970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7878,7 +8017,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>6</v>
       </c>
@@ -7907,7 +8046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10</v>
       </c>
@@ -7918,7 +8057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>11</v>
       </c>
@@ -7935,7 +8074,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>12</v>
       </c>
@@ -7946,7 +8085,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>15</v>
       </c>
@@ -7954,7 +8093,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>16</v>
       </c>
@@ -7962,7 +8101,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>20</v>
       </c>
@@ -7970,7 +8109,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>23</v>
       </c>
@@ -7978,7 +8117,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>24</v>
       </c>
@@ -7986,7 +8125,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>25</v>
       </c>
@@ -8000,7 +8139,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>26</v>
       </c>
@@ -8011,7 +8150,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>27</v>
       </c>
@@ -8019,7 +8158,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>30</v>
       </c>
@@ -8027,7 +8166,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>31</v>
       </c>
@@ -8038,7 +8177,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>32</v>
       </c>
@@ -8049,7 +8188,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>33</v>
       </c>
@@ -8060,7 +8199,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>34</v>
       </c>
@@ -8071,7 +8210,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>35</v>
       </c>
@@ -8079,7 +8218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>38</v>
       </c>
@@ -8123,7 +8262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>39</v>
       </c>
@@ -8152,7 +8291,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>41</v>
       </c>
@@ -8184,7 +8323,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>42</v>
       </c>
@@ -8216,7 +8355,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>43</v>
       </c>
@@ -8254,7 +8393,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>44</v>
       </c>
@@ -8289,7 +8428,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>45</v>
       </c>
@@ -8324,7 +8463,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>46</v>
       </c>
@@ -8338,7 +8477,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>47</v>
       </c>
@@ -8363,7 +8502,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>51</v>
       </c>
@@ -8377,7 +8516,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>52</v>
       </c>
@@ -8394,7 +8533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>53</v>
       </c>
@@ -8420,7 +8559,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>54</v>
       </c>
@@ -8440,7 +8579,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>55</v>
       </c>
@@ -8469,7 +8608,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>56</v>
       </c>
@@ -8498,7 +8637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>57</v>
       </c>
@@ -8526,7 +8665,7 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>58</v>
       </c>
@@ -8555,7 +8694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>59</v>
       </c>
@@ -8587,7 +8726,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>60</v>
       </c>
@@ -8616,7 +8755,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>62</v>
       </c>
@@ -8654,7 +8793,7 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>63</v>
       </c>
@@ -8680,7 +8819,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>64</v>
       </c>
@@ -8707,7 +8846,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>65</v>
       </c>
@@ -8757,7 +8896,7 @@
       <c r="W43" s="14"/>
       <c r="X43" s="14"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>66</v>
       </c>
@@ -8807,7 +8946,7 @@
       <c r="W44" s="14"/>
       <c r="X44" s="14"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>67</v>
       </c>
@@ -8857,7 +8996,7 @@
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>68</v>
       </c>
@@ -8907,7 +9046,7 @@
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>69</v>
       </c>
@@ -8957,7 +9096,7 @@
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>71</v>
       </c>
@@ -8983,7 +9122,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>72</v>
       </c>
@@ -9030,7 +9169,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>73</v>
       </c>
@@ -9077,7 +9216,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>74</v>
       </c>
@@ -9124,7 +9263,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>75</v>
       </c>
@@ -9171,7 +9310,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>76</v>
       </c>
@@ -9218,7 +9357,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>78</v>
       </c>
@@ -9274,7 +9413,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>79</v>
       </c>
@@ -9330,7 +9469,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>80</v>
       </c>
@@ -9386,7 +9525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>81</v>
       </c>
@@ -9444,7 +9583,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>82</v>
       </c>
@@ -9508,7 +9647,7 @@
       <c r="W58" s="8"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>83</v>
       </c>
@@ -9572,7 +9711,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="8"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>84</v>
       </c>
@@ -9626,7 +9765,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>85</v>
       </c>
@@ -9680,7 +9819,7 @@
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>86</v>
       </c>
@@ -9747,7 +9886,7 @@
       <c r="W62" s="8"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>87</v>
       </c>
@@ -9784,7 +9923,7 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>88</v>
       </c>
@@ -9829,7 +9968,7 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>89</v>
       </c>
@@ -9882,7 +10021,7 @@
       <c r="T65" s="9"/>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>103</v>
       </c>
@@ -9917,7 +10056,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>104</v>
       </c>
@@ -9949,7 +10088,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>105</v>
       </c>
@@ -9987,7 +10126,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>106</v>
       </c>
@@ -10019,7 +10158,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>113</v>
       </c>
@@ -10057,7 +10196,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>114</v>
       </c>
@@ -10089,7 +10228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>115</v>
       </c>
@@ -10124,7 +10263,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>116</v>
       </c>
@@ -10156,7 +10295,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>117</v>
       </c>
@@ -10167,7 +10306,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>118</v>
       </c>
@@ -10184,7 +10323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>119</v>
       </c>
@@ -10198,7 +10337,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>120</v>
       </c>
@@ -10212,7 +10351,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>121</v>
       </c>
@@ -10232,7 +10371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>122</v>
       </c>
@@ -10252,7 +10391,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>123</v>
       </c>
@@ -10266,7 +10405,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>124</v>
       </c>
@@ -10280,7 +10419,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>125</v>
       </c>
@@ -10312,7 +10451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>127</v>
       </c>
@@ -10377,7 +10516,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>128</v>
       </c>
@@ -10442,7 +10581,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>129</v>
       </c>
@@ -10478,7 +10617,7 @@
       <c r="O85" s="9"/>
       <c r="P85" s="11"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>130</v>
       </c>
@@ -10514,7 +10653,7 @@
       <c r="O86" s="9"/>
       <c r="P86" s="11"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>131</v>
       </c>
@@ -10550,7 +10689,7 @@
       <c r="O87" s="9"/>
       <c r="P87" s="11"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>132</v>
       </c>
@@ -10586,7 +10725,7 @@
       <c r="O88" s="9"/>
       <c r="P88" s="11"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>133</v>
       </c>
@@ -10654,7 +10793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>134</v>
       </c>
@@ -10723,7 +10862,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>135</v>
       </c>
@@ -10761,7 +10900,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>136</v>
       </c>
@@ -10799,7 +10938,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>138</v>
       </c>
@@ -10840,7 +10979,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>139</v>
       </c>
@@ -10866,7 +11005,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>141</v>
       </c>
@@ -10892,7 +11031,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>143</v>
       </c>
@@ -10921,7 +11060,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>144</v>
       </c>
@@ -10950,7 +11089,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>145</v>
       </c>
@@ -10970,7 +11109,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>147</v>
       </c>
@@ -10995,7 +11134,7 @@
       <c r="N99" s="9"/>
       <c r="O99" s="8"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>149</v>
       </c>
@@ -11019,7 +11158,7 @@
       </c>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>150</v>
       </c>
@@ -11045,7 +11184,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>151</v>
       </c>
@@ -11083,7 +11222,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>152</v>
       </c>
@@ -11112,7 +11251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>153</v>
       </c>
@@ -11144,7 +11283,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>154</v>
       </c>
@@ -11176,7 +11315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>155</v>
       </c>
@@ -11193,7 +11332,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>156</v>
       </c>
@@ -11210,7 +11349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>157</v>
       </c>
@@ -11224,7 +11363,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>158</v>
       </c>
@@ -11235,7 +11374,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>159</v>
       </c>
@@ -11249,7 +11388,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>160</v>
       </c>
@@ -11269,7 +11408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>166</v>
       </c>
@@ -11296,7 +11435,7 @@
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>167</v>
       </c>
@@ -11323,7 +11462,7 @@
       </c>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>168</v>
       </c>
@@ -11350,7 +11489,7 @@
       </c>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>169</v>
       </c>
@@ -11377,7 +11516,7 @@
       </c>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>170</v>
       </c>
@@ -11404,7 +11543,7 @@
       </c>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>174</v>
       </c>
@@ -11463,7 +11602,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>175</v>
       </c>
@@ -11519,7 +11658,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>176</v>
       </c>
@@ -11575,7 +11714,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>177</v>
       </c>
@@ -11622,7 +11761,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>178</v>
       </c>
@@ -11663,7 +11802,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>179</v>
       </c>
@@ -11717,7 +11856,7 @@
       </c>
       <c r="R122" s="15"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>180</v>
       </c>
@@ -11771,7 +11910,7 @@
       </c>
       <c r="R123" s="15"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>181</v>
       </c>
@@ -11825,7 +11964,7 @@
       </c>
       <c r="R124" s="15"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>182</v>
       </c>
@@ -11879,7 +12018,7 @@
       </c>
       <c r="R125" s="15"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>183</v>
       </c>
@@ -11933,7 +12072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>184</v>
       </c>
@@ -11986,7 +12125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>185</v>
       </c>
@@ -12036,7 +12175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>186</v>
       </c>
@@ -12086,7 +12225,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>187</v>
       </c>
@@ -12094,7 +12233,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>188</v>
       </c>
@@ -12102,7 +12241,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>189</v>
       </c>
@@ -12116,7 +12255,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>190</v>
       </c>
@@ -12145,7 +12284,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>191</v>
       </c>
@@ -12165,7 +12304,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>197</v>
       </c>
@@ -12218,7 +12357,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>198</v>
       </c>
@@ -12271,7 +12410,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>199</v>
       </c>
@@ -12324,7 +12463,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>200</v>
       </c>
@@ -12377,7 +12516,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>201</v>
       </c>
@@ -12395,7 +12534,7 @@
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>202</v>
       </c>
@@ -12415,7 +12554,7 @@
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>203</v>
       </c>
@@ -12429,7 +12568,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>204</v>
       </c>
@@ -12443,7 +12582,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>205</v>
       </c>
@@ -12484,7 +12623,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>206</v>
       </c>
@@ -12525,7 +12664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>207</v>
       </c>
@@ -12542,7 +12681,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>208</v>
       </c>
@@ -12586,7 +12725,7 @@
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>209</v>
       </c>
@@ -12634,7 +12773,7 @@
       </c>
       <c r="Q147" s="7"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>210</v>
       </c>
@@ -12681,7 +12820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>211</v>
       </c>
@@ -12728,7 +12867,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>212</v>
       </c>
@@ -12757,7 +12896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>213</v>
       </c>
@@ -12786,7 +12925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>214</v>
       </c>
@@ -12815,7 +12954,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>215</v>
       </c>
@@ -12844,7 +12983,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>216</v>
       </c>
@@ -12879,7 +13018,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>217</v>
       </c>
@@ -12911,7 +13050,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>218</v>
       </c>
@@ -12943,7 +13082,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>219</v>
       </c>
@@ -12981,7 +13120,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>220</v>
       </c>
@@ -13013,7 +13152,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>221</v>
       </c>
@@ -13033,7 +13172,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>222</v>
       </c>
@@ -13059,7 +13198,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>223</v>
       </c>
@@ -13112,7 +13251,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>224</v>
       </c>
@@ -13132,7 +13271,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>225</v>
       </c>
@@ -13152,7 +13291,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>226</v>
       </c>
@@ -13166,7 +13305,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>227</v>
       </c>
@@ -13186,7 +13325,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>228</v>
       </c>
@@ -13200,7 +13339,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>229</v>
       </c>
@@ -13211,7 +13350,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>230</v>
       </c>
@@ -13225,7 +13364,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>231</v>
       </c>
@@ -13233,7 +13372,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>232</v>
       </c>
@@ -13271,7 +13410,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>233</v>
       </c>
@@ -13300,7 +13439,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>234</v>
       </c>
@@ -13332,7 +13471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>235</v>
       </c>
@@ -13364,7 +13503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>236</v>
       </c>
@@ -13390,7 +13529,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>237</v>
       </c>
@@ -13431,7 +13570,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>238</v>
       </c>
@@ -13448,7 +13587,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>239</v>
       </c>
@@ -13477,7 +13616,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>240</v>
       </c>
@@ -13512,7 +13651,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>248</v>
       </c>
@@ -13538,7 +13677,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>249</v>
       </c>
@@ -13564,7 +13703,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>250</v>
       </c>
@@ -13590,7 +13729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>251</v>
       </c>
@@ -13607,7 +13746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>252</v>
       </c>
@@ -13630,7 +13769,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>253</v>
       </c>
@@ -13650,7 +13789,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>254</v>
       </c>
@@ -13682,7 +13821,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>255</v>
       </c>
@@ -13702,7 +13841,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>256</v>
       </c>
@@ -13740,7 +13879,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>257</v>
       </c>
@@ -13763,7 +13902,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>258</v>
       </c>
@@ -13792,7 +13931,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>259</v>
       </c>

--- a/DSMCaseReasoning/src/cases.xlsx
+++ b/DSMCaseReasoning/src/cases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF33AB4-69B3-44D8-B1F9-9E5364A212E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4872D235-E582-47C1-A44C-349B21F1C040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2528" yWindow="1500" windowWidth="16199" windowHeight="9308" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="10" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="244">
   <si>
     <t>ID</t>
   </si>
@@ -449,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Annual mean evapotranspiration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Total dose</t>
   </si>
   <si>
@@ -539,17 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Profile curvature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TWI</t>
-  </si>
-  <si>
-    <t>SPI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soil texture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,9 +549,6 @@
     <t>MrRTF</t>
   </si>
   <si>
-    <t>Profile curvature</t>
-  </si>
-  <si>
     <t>Overland flow distance</t>
   </si>
   <si>
@@ -574,9 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Convergence index</t>
-  </si>
-  <si>
     <t>Protection index</t>
   </si>
   <si>
@@ -642,13 +621,6 @@
     <t>Flow direction</t>
   </si>
   <si>
-    <t>Plan curvature</t>
-  </si>
-  <si>
-    <t>Slope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Accumulated annual temperature</t>
   </si>
   <si>
@@ -656,10 +628,6 @@
   </si>
   <si>
     <t>Exposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slope position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -725,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plan curvature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>band1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,10 +734,6 @@
     <t>Salinity ratio</t>
   </si>
   <si>
-    <t>catchment slope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Band 8</t>
   </si>
   <si>
@@ -828,9 +788,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Slope length</t>
-  </si>
-  <si>
     <t>Altitude above channel network</t>
   </si>
   <si>
@@ -861,13 +818,7 @@
     <t>Brightness</t>
   </si>
   <si>
-    <t>Slope</t>
-  </si>
-  <si>
     <t>Uranium</t>
-  </si>
-  <si>
-    <t>DEM</t>
   </si>
   <si>
     <t>aspect</t>
@@ -883,9 +834,6 @@
     <t>transport capacity index</t>
   </si>
   <si>
-    <t xml:space="preserve">DEM </t>
-  </si>
-  <si>
     <t>Forest Type</t>
   </si>
   <si>
@@ -924,36 +872,19 @@
     <t>TRI</t>
   </si>
   <si>
-    <t>TWI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>precipitation of wettest period</t>
   </si>
   <si>
     <t>Monthly average precipitation</t>
   </si>
   <si>
-    <t>Annual mean evapotranspiration</t>
-  </si>
-  <si>
     <t>annual mean moisture index</t>
   </si>
   <si>
     <t>Clay index</t>
   </si>
   <si>
-    <t>Slope position</t>
-  </si>
-  <si>
     <t>weathering index</t>
-  </si>
-  <si>
-    <t>SPI</t>
   </si>
   <si>
     <t>Soil Drainage</t>
@@ -963,10 +894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TWI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Grassland frequency</t>
   </si>
   <si>
@@ -1002,10 +929,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TWI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Flow Path Length</t>
   </si>
   <si>
@@ -1028,10 +951,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slope height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Thorium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1056,10 +975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>the ratio of annual precipitation and annual potential evapotranspiration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Analytical hillshading</t>
   </si>
   <si>
@@ -1070,14 +985,6 @@
   </si>
   <si>
     <t>landscape classification</t>
-  </si>
-  <si>
-    <t>Slope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TWI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MrVBF</t>
@@ -1096,26 +1003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slope</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>slope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convergence index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slope length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>linear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1142,6 +1029,45 @@
   <si>
     <t>elevationD</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topographic_wetness_index</t>
+  </si>
+  <si>
+    <t>profile_curvature</t>
+  </si>
+  <si>
+    <t>plan_curvature</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>slope length</t>
+  </si>
+  <si>
+    <t>catchment slope</t>
+  </si>
+  <si>
+    <t>slope position</t>
+  </si>
+  <si>
+    <t>convergence_index</t>
+  </si>
+  <si>
+    <t>stream_power_index</t>
+  </si>
+  <si>
+    <t>Annual mean evapotranstream_power_indexration</t>
+  </si>
+  <si>
+    <t>the ratio of annual precipitation and annual potential evapotranstream_power_indexration</t>
+  </si>
+  <si>
+    <t>dem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dem </t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1078,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1287,13 +1213,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1651,25 +1570,25 @@
       <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
@@ -1681,7 +1600,7 @@
         <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
@@ -1693,10 +1612,10 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1728,7 +1647,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1760,7 +1679,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1792,7 +1711,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1824,7 +1743,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1856,7 +1775,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1888,7 +1807,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1920,7 +1839,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1952,7 +1871,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>23</v>
       </c>
@@ -1984,7 +1903,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>24</v>
       </c>
@@ -2016,7 +1935,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>25</v>
       </c>
@@ -2048,7 +1967,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>26</v>
       </c>
@@ -2080,7 +1999,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>27</v>
       </c>
@@ -2112,7 +2031,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>30</v>
       </c>
@@ -2144,7 +2063,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>31</v>
       </c>
@@ -2176,7 +2095,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>32</v>
       </c>
@@ -2208,7 +2127,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>33</v>
       </c>
@@ -2240,7 +2159,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>34</v>
       </c>
@@ -2272,7 +2191,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>35</v>
       </c>
@@ -2304,7 +2223,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
@@ -2336,7 +2255,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>39</v>
       </c>
@@ -2368,7 +2287,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>41</v>
       </c>
@@ -2400,7 +2319,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>42</v>
       </c>
@@ -2432,7 +2351,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>43</v>
       </c>
@@ -2464,7 +2383,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>44</v>
       </c>
@@ -2496,7 +2415,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>45</v>
       </c>
@@ -2528,7 +2447,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>46</v>
       </c>
@@ -2560,7 +2479,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>47</v>
       </c>
@@ -2592,7 +2511,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>51</v>
       </c>
@@ -2624,7 +2543,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>52</v>
       </c>
@@ -2656,7 +2575,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>53</v>
       </c>
@@ -2688,7 +2607,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>54</v>
       </c>
@@ -2720,7 +2639,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>55</v>
       </c>
@@ -2752,7 +2671,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>56</v>
       </c>
@@ -2784,7 +2703,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>57</v>
       </c>
@@ -2816,7 +2735,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>58</v>
       </c>
@@ -2848,7 +2767,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>59</v>
       </c>
@@ -2880,7 +2799,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>60</v>
       </c>
@@ -2912,7 +2831,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>62</v>
       </c>
@@ -2944,7 +2863,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>63</v>
       </c>
@@ -2976,7 +2895,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>64</v>
       </c>
@@ -3008,7 +2927,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>65</v>
       </c>
@@ -3040,7 +2959,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>66</v>
       </c>
@@ -3072,7 +2991,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>67</v>
       </c>
@@ -3104,7 +3023,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>68</v>
       </c>
@@ -3136,7 +3055,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>69</v>
       </c>
@@ -3168,7 +3087,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>71</v>
       </c>
@@ -3200,7 +3119,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>72</v>
       </c>
@@ -3232,7 +3151,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>73</v>
       </c>
@@ -3264,7 +3183,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>74</v>
       </c>
@@ -3296,7 +3215,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>75</v>
       </c>
@@ -3328,7 +3247,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>76</v>
       </c>
@@ -3360,7 +3279,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>78</v>
       </c>
@@ -3392,7 +3311,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>79</v>
       </c>
@@ -3424,7 +3343,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>80</v>
       </c>
@@ -3456,7 +3375,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>81</v>
       </c>
@@ -3488,7 +3407,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>82</v>
       </c>
@@ -3520,7 +3439,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>83</v>
       </c>
@@ -3552,7 +3471,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>84</v>
       </c>
@@ -3584,7 +3503,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>85</v>
       </c>
@@ -3616,7 +3535,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>86</v>
       </c>
@@ -3648,7 +3567,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>87</v>
       </c>
@@ -3680,7 +3599,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>88</v>
       </c>
@@ -3712,7 +3631,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>89</v>
       </c>
@@ -3744,7 +3663,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>103</v>
       </c>
@@ -3776,7 +3695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>104</v>
       </c>
@@ -3808,7 +3727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>105</v>
       </c>
@@ -3840,7 +3759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>106</v>
       </c>
@@ -3872,7 +3791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>113</v>
       </c>
@@ -3904,7 +3823,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>114</v>
       </c>
@@ -3936,7 +3855,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>115</v>
       </c>
@@ -3968,7 +3887,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>116</v>
       </c>
@@ -4000,7 +3919,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>117</v>
       </c>
@@ -4032,7 +3951,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>118</v>
       </c>
@@ -4064,7 +3983,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>119</v>
       </c>
@@ -4096,7 +4015,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>120</v>
       </c>
@@ -4128,7 +4047,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>121</v>
       </c>
@@ -4160,7 +4079,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>122</v>
       </c>
@@ -4192,7 +4111,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>123</v>
       </c>
@@ -4224,7 +4143,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>124</v>
       </c>
@@ -4256,7 +4175,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>125</v>
       </c>
@@ -4288,7 +4207,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>127</v>
       </c>
@@ -4320,7 +4239,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>128</v>
       </c>
@@ -4352,7 +4271,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>129</v>
       </c>
@@ -4384,7 +4303,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>130</v>
       </c>
@@ -4416,7 +4335,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>131</v>
       </c>
@@ -4448,7 +4367,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>132</v>
       </c>
@@ -4480,7 +4399,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>133</v>
       </c>
@@ -4512,7 +4431,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>134</v>
       </c>
@@ -4544,7 +4463,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>135</v>
       </c>
@@ -4576,7 +4495,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>136</v>
       </c>
@@ -4608,7 +4527,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>138</v>
       </c>
@@ -4640,7 +4559,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>139</v>
       </c>
@@ -4672,7 +4591,7 @@
         <v>4718</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>141</v>
       </c>
@@ -4704,7 +4623,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>143</v>
       </c>
@@ -4736,7 +4655,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>144</v>
       </c>
@@ -4768,7 +4687,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>145</v>
       </c>
@@ -4800,7 +4719,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>147</v>
       </c>
@@ -4832,7 +4751,7 @@
         <v>658.7</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>149</v>
       </c>
@@ -4864,7 +4783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>150</v>
       </c>
@@ -4896,7 +4815,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>151</v>
       </c>
@@ -4928,7 +4847,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>152</v>
       </c>
@@ -4960,7 +4879,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>153</v>
       </c>
@@ -4992,7 +4911,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>154</v>
       </c>
@@ -5024,7 +4943,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>155</v>
       </c>
@@ -5056,7 +4975,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>156</v>
       </c>
@@ -5088,7 +5007,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>157</v>
       </c>
@@ -5120,7 +5039,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>158</v>
       </c>
@@ -5152,7 +5071,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>159</v>
       </c>
@@ -5184,7 +5103,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>160</v>
       </c>
@@ -5216,7 +5135,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>166</v>
       </c>
@@ -5248,7 +5167,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>167</v>
       </c>
@@ -5280,7 +5199,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>168</v>
       </c>
@@ -5312,7 +5231,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>169</v>
       </c>
@@ -5344,7 +5263,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>170</v>
       </c>
@@ -5376,7 +5295,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>174</v>
       </c>
@@ -5408,7 +5327,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>175</v>
       </c>
@@ -5440,7 +5359,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>176</v>
       </c>
@@ -5472,7 +5391,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>177</v>
       </c>
@@ -5504,7 +5423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>178</v>
       </c>
@@ -5536,7 +5455,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>179</v>
       </c>
@@ -5568,7 +5487,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>180</v>
       </c>
@@ -5600,7 +5519,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>181</v>
       </c>
@@ -5632,7 +5551,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>182</v>
       </c>
@@ -5664,7 +5583,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>183</v>
       </c>
@@ -5696,7 +5615,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>184</v>
       </c>
@@ -5728,7 +5647,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>185</v>
       </c>
@@ -5760,7 +5679,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>186</v>
       </c>
@@ -5792,7 +5711,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>187</v>
       </c>
@@ -5824,7 +5743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>188</v>
       </c>
@@ -5856,7 +5775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>189</v>
       </c>
@@ -5888,7 +5807,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>190</v>
       </c>
@@ -5920,7 +5839,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>191</v>
       </c>
@@ -5952,7 +5871,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>197</v>
       </c>
@@ -5984,7 +5903,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>198</v>
       </c>
@@ -6016,7 +5935,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>199</v>
       </c>
@@ -6048,7 +5967,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>200</v>
       </c>
@@ -6080,7 +5999,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>201</v>
       </c>
@@ -6112,7 +6031,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>202</v>
       </c>
@@ -6144,7 +6063,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>203</v>
       </c>
@@ -6176,7 +6095,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>204</v>
       </c>
@@ -6208,7 +6127,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>205</v>
       </c>
@@ -6240,7 +6159,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>206</v>
       </c>
@@ -6272,7 +6191,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>207</v>
       </c>
@@ -6304,7 +6223,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>208</v>
       </c>
@@ -6336,7 +6255,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>209</v>
       </c>
@@ -6368,7 +6287,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>210</v>
       </c>
@@ -6400,7 +6319,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>211</v>
       </c>
@@ -6432,7 +6351,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>212</v>
       </c>
@@ -6464,7 +6383,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>213</v>
       </c>
@@ -6496,7 +6415,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>214</v>
       </c>
@@ -6528,7 +6447,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>215</v>
       </c>
@@ -6560,7 +6479,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>216</v>
       </c>
@@ -6592,7 +6511,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>217</v>
       </c>
@@ -6624,7 +6543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>218</v>
       </c>
@@ -6656,7 +6575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>219</v>
       </c>
@@ -6688,7 +6607,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>220</v>
       </c>
@@ -6720,7 +6639,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>221</v>
       </c>
@@ -6752,7 +6671,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>222</v>
       </c>
@@ -6784,7 +6703,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>223</v>
       </c>
@@ -6816,7 +6735,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>224</v>
       </c>
@@ -6848,7 +6767,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>225</v>
       </c>
@@ -6880,7 +6799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>226</v>
       </c>
@@ -6912,7 +6831,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>227</v>
       </c>
@@ -6944,7 +6863,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>228</v>
       </c>
@@ -6976,7 +6895,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>229</v>
       </c>
@@ -7008,7 +6927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>230</v>
       </c>
@@ -7040,7 +6959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>231</v>
       </c>
@@ -7072,7 +6991,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>232</v>
       </c>
@@ -7104,7 +7023,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>233</v>
       </c>
@@ -7136,7 +7055,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>234</v>
       </c>
@@ -7168,7 +7087,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>235</v>
       </c>
@@ -7200,7 +7119,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>236</v>
       </c>
@@ -7232,7 +7151,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>237</v>
       </c>
@@ -7264,7 +7183,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>238</v>
       </c>
@@ -7296,7 +7215,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>239</v>
       </c>
@@ -7328,7 +7247,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>240</v>
       </c>
@@ -7360,7 +7279,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>248</v>
       </c>
@@ -7392,7 +7311,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>249</v>
       </c>
@@ -7424,7 +7343,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>250</v>
       </c>
@@ -7456,7 +7375,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>251</v>
       </c>
@@ -7488,7 +7407,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>252</v>
       </c>
@@ -7520,7 +7439,7 @@
         <v>87.316000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>253</v>
       </c>
@@ -7552,7 +7471,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>254</v>
       </c>
@@ -7584,7 +7503,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>255</v>
       </c>
@@ -7616,7 +7535,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>256</v>
       </c>
@@ -7648,7 +7567,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>257</v>
       </c>
@@ -7680,7 +7599,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>258</v>
       </c>
@@ -7712,7 +7631,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>259</v>
       </c>
@@ -7758,19 +7677,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B55686D-E9BA-4AA5-919E-3E3ED25FC328}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
@@ -7782,7 +7701,7 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>39</v>
@@ -7794,41 +7713,41 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="B3" s="23">
         <v>200</v>
@@ -7866,37 +7785,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B7A103-8910-40A2-A97F-D6DE2A9F3FC6}">
   <dimension ref="A1:X190"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.1328125" customWidth="1"/>
-    <col min="4" max="4" width="27.19921875" customWidth="1"/>
-    <col min="5" max="5" width="32.86328125" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.86328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7970,83 +7889,83 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="H2" t="s">
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="J2" t="s">
         <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="M2" t="s">
         <v>43</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="O2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" t="s">
         <v>186</v>
       </c>
-      <c r="D3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" t="s">
-        <v>201</v>
-      </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -8057,7 +7976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -8065,16 +7984,16 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -8082,124 +8001,124 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>25</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>34</v>
       </c>
@@ -8207,10 +8126,10 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>35</v>
       </c>
@@ -8218,7 +8137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
@@ -8226,16 +8145,16 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" t="s">
         <v>186</v>
-      </c>
-      <c r="F21" t="s">
-        <v>201</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -8244,16 +8163,16 @@
         <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="M21" t="s">
         <v>62</v>
@@ -8262,312 +8181,312 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="H22" t="s">
         <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="H23" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="I23" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G24" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="H24" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I26" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I27" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
         <v>88</v>
       </c>
-      <c r="D30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
       </c>
       <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
         <v>88</v>
       </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s">
         <v>88</v>
       </c>
-      <c r="H32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
         <v>50</v>
@@ -8576,82 +8495,82 @@
         <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
         <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="I35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="F36" t="s">
         <v>65</v>
@@ -8665,105 +8584,105 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
         <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="J38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
         <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="G39" t="s">
         <v>63</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D40" t="s">
         <v>65</v>
@@ -8772,81 +8691,81 @@
         <v>43</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" t="s">
         <v>160</v>
       </c>
-      <c r="G40" t="s">
-        <v>161</v>
-      </c>
-      <c r="H40" t="s">
-        <v>171</v>
-      </c>
       <c r="I40" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J40" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K40" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F41" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G41" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D42" t="s">
         <v>43</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F42" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>65</v>
       </c>
@@ -8854,22 +8773,22 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F43" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I43" t="s">
         <v>48</v>
@@ -8878,10 +8797,10 @@
         <v>44</v>
       </c>
       <c r="K43" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="L43" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
@@ -8896,12 +8815,12 @@
       <c r="W43" s="14"/>
       <c r="X43" s="14"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
         <v>53</v>
@@ -8910,16 +8829,16 @@
         <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F44" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="G44" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H44" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="I44" t="s">
         <v>48</v>
@@ -8928,10 +8847,10 @@
         <v>44</v>
       </c>
       <c r="K44" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="L44" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
@@ -8946,30 +8865,30 @@
       <c r="W44" s="14"/>
       <c r="X44" s="14"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
         <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H45" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="I45" t="s">
         <v>48</v>
@@ -8978,10 +8897,10 @@
         <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="L45" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
@@ -8996,18 +8915,18 @@
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="E46" t="s">
         <v>53</v>
@@ -9016,7 +8935,7 @@
         <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H46" t="s">
         <v>48</v>
@@ -9025,13 +8944,13 @@
         <v>44</v>
       </c>
       <c r="J46" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K46" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="L46" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
@@ -9046,24 +8965,24 @@
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D47" t="s">
         <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F47" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>60</v>
@@ -9075,13 +8994,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="L47" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
@@ -9096,44 +9015,44 @@
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" t="s">
         <v>80</v>
-      </c>
-      <c r="D48" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" t="s">
-        <v>81</v>
       </c>
       <c r="G48" t="s">
         <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
         <v>43</v>
@@ -9142,45 +9061,45 @@
         <v>65</v>
       </c>
       <c r="G49" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="K49" t="s">
+        <v>231</v>
+      </c>
+      <c r="L49" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="M49" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
         <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
         <v>43</v>
@@ -9189,45 +9108,45 @@
         <v>65</v>
       </c>
       <c r="G50" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="K50" t="s">
+        <v>231</v>
+      </c>
+      <c r="L50" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="M50" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E51" t="s">
         <v>43</v>
@@ -9236,45 +9155,45 @@
         <v>65</v>
       </c>
       <c r="G51" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="K51" t="s">
+        <v>231</v>
+      </c>
+      <c r="L51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="M51" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
         <v>43</v>
@@ -9283,45 +9202,45 @@
         <v>65</v>
       </c>
       <c r="G52" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H52" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="K52" t="s">
+        <v>231</v>
+      </c>
+      <c r="L52" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="M52" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
         <v>43</v>
@@ -9330,95 +9249,95 @@
         <v>65</v>
       </c>
       <c r="G53" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H53" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="K53" t="s">
+        <v>231</v>
+      </c>
+      <c r="L53" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="M53" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s">
         <v>45</v>
       </c>
       <c r="J54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="O54" s="17" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q54" s="17" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="R54" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
@@ -9427,57 +9346,57 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G55" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I55" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J55" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K55" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="L55" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="M55" t="s">
         <v>41</v>
       </c>
       <c r="N55" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="O55" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q55" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="R55" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
         <v>50</v>
@@ -9486,46 +9405,46 @@
         <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G56" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H56" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J56" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K56" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="L56" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M56" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="N56" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="O56" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="P56" t="s">
         <v>41</v>
       </c>
       <c r="Q56" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="R56" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>81</v>
       </c>
@@ -9533,7 +9452,7 @@
         <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
@@ -9542,7 +9461,7 @@
         <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G57" t="s">
         <v>47</v>
@@ -9554,22 +9473,22 @@
         <v>49</v>
       </c>
       <c r="J57" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K57" t="s">
         <v>50</v>
       </c>
       <c r="L57" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="M57" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N57" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="O57" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>52</v>
@@ -9583,7 +9502,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>82</v>
       </c>
@@ -9594,13 +9513,13 @@
         <v>54</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G58" t="s">
         <v>47</v>
@@ -9612,28 +9531,28 @@
         <v>60</v>
       </c>
       <c r="J58" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K58" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M58" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="N58" t="s">
         <v>55</v>
       </c>
       <c r="O58" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="Q58" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="R58" t="s">
         <v>47</v>
@@ -9647,7 +9566,7 @@
       <c r="W58" s="8"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>83</v>
       </c>
@@ -9664,16 +9583,16 @@
         <v>53</v>
       </c>
       <c r="F59" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G59" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="H59" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="I59" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J59" t="s">
         <v>53</v>
@@ -9688,22 +9607,22 @@
         <v>49</v>
       </c>
       <c r="N59" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="O59" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="P59" t="s">
         <v>57</v>
       </c>
       <c r="Q59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R59" t="s">
         <v>56</v>
       </c>
       <c r="S59" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="T59" s="9"/>
       <c r="U59" s="8"/>
@@ -9711,7 +9630,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="8"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>84</v>
       </c>
@@ -9719,16 +9638,16 @@
         <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s">
         <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G60" t="s">
         <v>47</v>
@@ -9737,13 +9656,13 @@
         <v>49</v>
       </c>
       <c r="I60" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="J60" t="s">
         <v>53</v>
       </c>
       <c r="K60" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s">
         <v>50</v>
@@ -9752,7 +9671,7 @@
         <v>49</v>
       </c>
       <c r="N60" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
@@ -9765,7 +9684,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>85</v>
       </c>
@@ -9773,16 +9692,16 @@
         <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D61" t="s">
         <v>58</v>
       </c>
       <c r="E61" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F61" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G61" t="s">
         <v>53</v>
@@ -9800,10 +9719,10 @@
         <v>54</v>
       </c>
       <c r="L61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M61" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N61" t="s">
         <v>45</v>
@@ -9819,12 +9738,12 @@
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
         <v>58</v>
@@ -9833,19 +9752,19 @@
         <v>53</v>
       </c>
       <c r="E62" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F62" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G62" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I62" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J62" t="s">
         <v>50</v>
@@ -9860,7 +9779,7 @@
         <v>54</v>
       </c>
       <c r="N62" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="O62" t="s">
         <v>48</v>
@@ -9872,41 +9791,41 @@
         <v>59</v>
       </c>
       <c r="R62" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="S62" t="s">
         <v>52</v>
       </c>
       <c r="T62" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="U62" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="W62" s="8"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>87</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
         <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
@@ -9923,7 +9842,7 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>88</v>
       </c>
@@ -9931,28 +9850,28 @@
         <v>43</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E64" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J64" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="K64" t="s">
         <v>62</v>
@@ -9968,30 +9887,30 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
         <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F65" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G65" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s">
         <v>62</v>
@@ -10000,19 +9919,19 @@
         <v>41</v>
       </c>
       <c r="K65" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L65" t="s">
         <v>42</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N65" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O65" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="P65" s="8"/>
       <c r="Q65" s="9"/>
@@ -10021,309 +9940,309 @@
       <c r="T65" s="9"/>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
         <v>52</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G66" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I66" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>43</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C67" t="s">
         <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F67" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="G67" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H67" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="I67" t="s">
         <v>43</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E68" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G68" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="H68" t="s">
         <v>52</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="K68" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="L68" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
         <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G69" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="H69" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>113</v>
       </c>
       <c r="B70" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="G70" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="H70" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="I70" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="J70" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K70" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="H71" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="I71" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="J71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="G72" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="H72" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="I72" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="J72" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="K72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="F73" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="G73" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I73" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="J73" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>117</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>119</v>
       </c>
@@ -10331,13 +10250,13 @@
         <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>120</v>
       </c>
@@ -10345,24 +10264,24 @@
         <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="E78" t="s">
         <v>43</v>
@@ -10371,55 +10290,55 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="C79" t="s">
         <v>43</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>123</v>
       </c>
       <c r="B80" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" t="s">
         <v>242</v>
       </c>
-      <c r="C80" t="s">
-        <v>186</v>
-      </c>
       <c r="D80" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>124</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>125</v>
       </c>
@@ -10427,161 +10346,161 @@
         <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E82" t="s">
         <v>63</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="G82" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H82" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="I82" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="J82" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>127</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D83" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E83" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="G83" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="H83" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="I83" t="s">
         <v>52</v>
       </c>
       <c r="J83" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="K83" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="L83" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M83" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N83" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="O83" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P83" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Q83" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="R83" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S83" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="T83" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="U83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C84" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D84" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E84" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="G84" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="H84" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="I84" t="s">
         <v>52</v>
       </c>
       <c r="J84" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="K84" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="L84" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M84" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N84" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="O84" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Q84" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="R84" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S84" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="T84" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="U84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>129</v>
       </c>
@@ -10589,22 +10508,22 @@
         <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D85" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" t="s">
         <v>92</v>
       </c>
-      <c r="E85" t="s">
-        <v>96</v>
-      </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="G85" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="H85" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="I85" t="s">
         <v>52</v>
@@ -10617,7 +10536,7 @@
       <c r="O85" s="9"/>
       <c r="P85" s="11"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>130</v>
       </c>
@@ -10625,25 +10544,25 @@
         <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D86" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E86" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="G86" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="H86" t="s">
         <v>52</v>
       </c>
       <c r="I86" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -10653,24 +10572,24 @@
       <c r="O86" s="9"/>
       <c r="P86" s="11"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>131</v>
       </c>
       <c r="B87" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" t="s">
         <v>92</v>
       </c>
-      <c r="C87" t="s">
-        <v>96</v>
-      </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="E87" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="F87" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -10679,7 +10598,7 @@
         <v>52</v>
       </c>
       <c r="I87" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -10689,33 +10608,33 @@
       <c r="O87" s="9"/>
       <c r="P87" s="11"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>132</v>
       </c>
       <c r="B88" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" t="s">
         <v>92</v>
       </c>
-      <c r="C88" t="s">
-        <v>96</v>
-      </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="E88" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="F88" t="s">
         <v>52</v>
       </c>
       <c r="G88" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="H88" t="s">
         <v>43</v>
       </c>
       <c r="I88" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -10725,33 +10644,33 @@
       <c r="O88" s="9"/>
       <c r="P88" s="11"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>133</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="E89" t="s">
         <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I89" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="J89" t="s">
         <v>63</v>
@@ -10760,367 +10679,367 @@
         <v>62</v>
       </c>
       <c r="L89" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="N89" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="O89" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="P89" s="6" t="s">
         <v>52</v>
       </c>
       <c r="R89" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="S89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T89" s="20" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="V89" s="20" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="W89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X89" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>134</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D90" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F90" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J90" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="K90" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L90" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="M90" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N90" s="7"/>
       <c r="O90" s="7" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="R90" s="6" t="s">
         <v>52</v>
       </c>
       <c r="S90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T90" t="s">
         <v>42</v>
       </c>
       <c r="U90" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="V90" s="20" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="W90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X90" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>135</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G91" t="s">
         <v>42</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="I91" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J91" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>136</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G92" t="s">
         <v>42</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="I92" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J92" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>138</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D93" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="E93" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F93" t="s">
         <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H93" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I93" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="K93" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L93" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M93" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" ht="27.75" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>139</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C94" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F94" t="s">
         <v>123</v>
       </c>
-      <c r="D94" t="s">
-        <v>124</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F94" t="s">
-        <v>132</v>
-      </c>
       <c r="G94" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="H94" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>141</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="F95" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="G95" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H95" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H96" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="I96" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E97" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G97" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="H97" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E98" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="F98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>147</v>
       </c>
       <c r="B99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="11"/>
@@ -11134,7 +11053,7 @@
       <c r="N99" s="9"/>
       <c r="O99" s="8"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>149</v>
       </c>
@@ -11142,23 +11061,23 @@
         <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="D100" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F100" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G100" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>150</v>
       </c>
@@ -11166,36 +11085,36 @@
         <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F101" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G101" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="H101" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>151</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C102" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D102" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E102" t="s">
         <v>40</v>
@@ -11204,135 +11123,135 @@
         <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H102" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I102" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="J102" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="K102" t="s">
         <v>52</v>
       </c>
       <c r="L102" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>152</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E103" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F103" t="s">
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H103" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I103" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>153</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D104" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="E104" t="s">
         <v>52</v>
       </c>
       <c r="F104" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
       </c>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I104" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J104" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>154</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="D105" t="s">
         <v>52</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F105" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G105" t="s">
         <v>40</v>
       </c>
       <c r="H105" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I105" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L105" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>155</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" t="s">
         <v>84</v>
-      </c>
-      <c r="C106" t="s">
-        <v>85</v>
       </c>
       <c r="D106" t="s">
         <v>45</v>
       </c>
       <c r="E106" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>156</v>
       </c>
@@ -11340,30 +11259,30 @@
         <v>45</v>
       </c>
       <c r="C107" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="E107" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>157</v>
       </c>
       <c r="B108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C108" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D108" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>158</v>
       </c>
@@ -11371,10 +11290,10 @@
         <v>45</v>
       </c>
       <c r="C109" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>159</v>
       </c>
@@ -11382,13 +11301,13 @@
         <v>45</v>
       </c>
       <c r="C110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="41.65" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>160</v>
       </c>
@@ -11396,744 +11315,744 @@
         <v>45</v>
       </c>
       <c r="C111" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D111" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="E111" t="s">
         <v>52</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>166</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>167</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C113" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>168</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C114" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>169</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C115" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>170</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C116" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>174</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D117" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E117" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G117" t="s">
         <v>40</v>
       </c>
       <c r="H117" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="I117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J117" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="K117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L117" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="M117" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N117" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="O117" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Q117" t="s">
         <v>52</v>
       </c>
       <c r="R117" t="s">
+        <v>235</v>
+      </c>
+      <c r="S117" t="s">
         <v>173</v>
       </c>
-      <c r="S117" t="s">
-        <v>187</v>
-      </c>
       <c r="T117" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>175</v>
       </c>
       <c r="B118" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C118" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D118" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E118" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F118" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G118" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H118" t="s">
         <v>40</v>
       </c>
       <c r="I118" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J118" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K118" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="L118" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="M118" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="N118" t="s">
         <v>52</v>
       </c>
       <c r="O118" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="P118" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>218</v>
+      </c>
+      <c r="R118" t="s">
         <v>173</v>
       </c>
-      <c r="Q118" t="s">
-        <v>242</v>
-      </c>
-      <c r="R118" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>176</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C119" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E119" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F119" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
       </c>
       <c r="H119" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I119" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J119" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="K119" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="L119" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M119" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="N119" t="s">
         <v>52</v>
       </c>
       <c r="O119" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="P119" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>218</v>
+      </c>
+      <c r="R119" t="s">
         <v>173</v>
       </c>
-      <c r="Q119" t="s">
-        <v>242</v>
-      </c>
-      <c r="R119" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>177</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C120" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D120" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E120" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F120" t="s">
         <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H120" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I120" t="s">
+        <v>231</v>
+      </c>
+      <c r="J120" t="s">
         <v>92</v>
       </c>
-      <c r="J120" t="s">
-        <v>96</v>
-      </c>
       <c r="K120" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="L120" t="s">
         <v>52</v>
       </c>
       <c r="M120" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N120" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="O120" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>178</v>
       </c>
       <c r="B121" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C121" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D121" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F121" t="s">
         <v>40</v>
       </c>
       <c r="G121" t="s">
+        <v>218</v>
+      </c>
+      <c r="H121" t="s">
+        <v>92</v>
+      </c>
+      <c r="I121" t="s">
+        <v>72</v>
+      </c>
+      <c r="J121" t="s">
         <v>242</v>
       </c>
-      <c r="H121" t="s">
-        <v>96</v>
-      </c>
-      <c r="I121" t="s">
-        <v>73</v>
-      </c>
-      <c r="J121" t="s">
-        <v>186</v>
-      </c>
       <c r="K121" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="L121" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M121" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>179</v>
       </c>
       <c r="B122" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C122" t="s">
         <v>40</v>
       </c>
       <c r="D122" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E122" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F122" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G122" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H122" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="I122" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J122" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K122" s="15" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="L122" s="15" t="s">
         <v>52</v>
       </c>
       <c r="M122" s="15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="N122" s="15" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="O122" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P122" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q122" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R122" s="15"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>180</v>
       </c>
       <c r="B123" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C123" t="s">
         <v>40</v>
       </c>
       <c r="D123" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E123" t="s">
+        <v>231</v>
+      </c>
+      <c r="F123" t="s">
+        <v>131</v>
+      </c>
+      <c r="G123" t="s">
+        <v>243</v>
+      </c>
+      <c r="H123" t="s">
         <v>92</v>
       </c>
-      <c r="F123" t="s">
-        <v>140</v>
-      </c>
-      <c r="G123" t="s">
-        <v>191</v>
-      </c>
-      <c r="H123" t="s">
-        <v>96</v>
-      </c>
       <c r="I123" s="16" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J123" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K123" s="15" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="L123" s="15" t="s">
         <v>52</v>
       </c>
       <c r="M123" s="15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="N123" s="15" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="O123" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P123" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q123" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R123" s="15"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>181</v>
       </c>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C124" t="s">
         <v>40</v>
       </c>
       <c r="D124" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E124" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F124" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="G124" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H124" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="I124" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="J124" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K124" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L124" s="16" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M124" s="15" t="s">
         <v>42</v>
       </c>
       <c r="N124" s="15" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="O124" s="15" t="s">
         <v>52</v>
       </c>
       <c r="P124" s="15" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="Q124" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R124" s="15"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>182</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D125" t="s">
         <v>40</v>
       </c>
       <c r="E125" t="s">
+        <v>231</v>
+      </c>
+      <c r="F125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H125" t="s">
         <v>92</v>
       </c>
-      <c r="F125" t="s">
-        <v>196</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H125" t="s">
-        <v>96</v>
-      </c>
       <c r="I125" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="J125" s="16" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K125" s="15" t="s">
         <v>42</v>
       </c>
       <c r="L125" s="15" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="M125" s="15" t="s">
         <v>52</v>
       </c>
       <c r="N125" s="15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="O125" s="15" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="P125" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q125" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R125" s="15"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>183</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D126" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E126" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F126" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G126" t="s">
+        <v>231</v>
+      </c>
+      <c r="H126" t="s">
+        <v>234</v>
+      </c>
+      <c r="I126" t="s">
         <v>92</v>
       </c>
-      <c r="H126" t="s">
-        <v>123</v>
-      </c>
-      <c r="I126" t="s">
-        <v>96</v>
-      </c>
       <c r="J126" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="K126" s="16" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="L126" s="15" t="s">
         <v>42</v>
       </c>
       <c r="M126" s="15" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="N126" s="15" t="s">
         <v>52</v>
       </c>
       <c r="O126" s="15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="P126" s="15"/>
       <c r="Q126" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="R126" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>184</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C127" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D127" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E127" t="s">
+        <v>231</v>
+      </c>
+      <c r="F127" t="s">
+        <v>181</v>
+      </c>
+      <c r="G127" t="s">
+        <v>234</v>
+      </c>
+      <c r="H127" t="s">
+        <v>114</v>
+      </c>
+      <c r="I127" t="s">
+        <v>242</v>
+      </c>
+      <c r="J127" t="s">
         <v>92</v>
       </c>
-      <c r="F127" t="s">
-        <v>196</v>
-      </c>
-      <c r="G127" t="s">
-        <v>123</v>
-      </c>
-      <c r="H127" t="s">
-        <v>120</v>
-      </c>
-      <c r="I127" t="s">
-        <v>186</v>
-      </c>
-      <c r="J127" t="s">
-        <v>96</v>
-      </c>
       <c r="K127" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L127" s="16" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M127" s="15" t="s">
         <v>42</v>
       </c>
       <c r="N127" s="15" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="O127" s="15" t="s">
         <v>52</v>
       </c>
       <c r="P127" s="15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Q127" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C128" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D128" t="s">
         <v>40</v>
@@ -12142,48 +12061,48 @@
         <v>48</v>
       </c>
       <c r="F128" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
       </c>
       <c r="H128" s="16" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K128" s="17" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="L128" s="17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M128" s="17" t="s">
         <v>52</v>
       </c>
       <c r="N128" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O128" s="17" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="P128" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C129" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D129" t="s">
         <v>40</v>
@@ -12192,349 +12111,349 @@
         <v>48</v>
       </c>
       <c r="F129" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G129" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H129" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="J129" s="16" t="s">
         <v>42</v>
       </c>
       <c r="K129" s="17" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="L129" s="17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M129" s="17" t="s">
         <v>52</v>
       </c>
       <c r="N129" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O129" s="17" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="P129" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>189</v>
       </c>
       <c r="B132" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C132" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D132" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C133" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="D133" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C134" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>197</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C135" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D135" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E135" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F135" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G135" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H135" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="I135" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="J135" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="K135" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L135" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="M135" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="N135" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="P135" s="7" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="Q135" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>198</v>
       </c>
       <c r="B136" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C136" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D136" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E136" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="F136" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G136" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H136" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="I136" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J136" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K136" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="L136" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N136" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="P136" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q136" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>199</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D137" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E137" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="F137" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="G137" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H137" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="I137" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J137" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="K137" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M137" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="N137" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="P137" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q137" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>200</v>
       </c>
       <c r="B138" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C138" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D138" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E138" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F138" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G138" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="H138" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="I138" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J138" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K138" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L138" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="M138" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="N138" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="P138" s="7" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="Q138" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>201</v>
       </c>
       <c r="B139" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C139" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>202</v>
       </c>
@@ -12542,117 +12461,117 @@
         <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="D140" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="E140" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>203</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D141" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>204</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D142" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>205</v>
       </c>
       <c r="B143" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C143" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D143" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="E143" t="s">
         <v>52</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="G143" t="s">
         <v>42</v>
       </c>
       <c r="H143" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I143" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J143" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="K143" t="s">
         <v>43</v>
       </c>
       <c r="L143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M143" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>206</v>
       </c>
       <c r="B144" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C144" t="s">
         <v>52</v>
       </c>
       <c r="D144" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="E144" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="F144" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G144" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H144" s="20" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="I144" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J144" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K144" t="s">
         <v>43</v>
@@ -12664,116 +12583,116 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>207</v>
       </c>
       <c r="B145" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C145" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="D145" t="s">
         <v>43</v>
       </c>
       <c r="E145" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>208</v>
       </c>
       <c r="B146" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C146" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D146" t="s">
+        <v>240</v>
+      </c>
+      <c r="E146" t="s">
         <v>207</v>
       </c>
-      <c r="E146" t="s">
-        <v>229</v>
-      </c>
       <c r="G146" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H146" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="I146" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J146" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K146" t="s">
+        <v>117</v>
+      </c>
+      <c r="L146" t="s">
+        <v>237</v>
+      </c>
+      <c r="M146" t="s">
         <v>125</v>
       </c>
-      <c r="L146" t="s">
-        <v>127</v>
-      </c>
-      <c r="M146" t="s">
-        <v>134</v>
-      </c>
       <c r="N146" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="O146" s="8"/>
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>209</v>
       </c>
       <c r="B147" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C147" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D147" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E147" t="s">
+        <v>240</v>
+      </c>
+      <c r="F147" t="s">
         <v>207</v>
       </c>
-      <c r="F147" t="s">
-        <v>229</v>
-      </c>
       <c r="G147" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H147" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="I147" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J147" t="s">
         <v>45</v>
       </c>
       <c r="K147" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M147" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O147" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P147" t="s">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c r="Q147" s="7"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>210</v>
       </c>
@@ -12781,813 +12700,813 @@
         <v>45</v>
       </c>
       <c r="C148" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D148" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E148" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F148" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G148" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="I148" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K148" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L148" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M148" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="N148" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="O148" t="s">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c r="P148" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>211</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C149" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D149" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E149" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F149" t="s">
         <v>45</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H149" t="s">
+        <v>240</v>
+      </c>
+      <c r="I149" t="s">
         <v>207</v>
       </c>
-      <c r="I149" t="s">
-        <v>229</v>
-      </c>
       <c r="K149" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L149" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M149" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="N149" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O149" t="s">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c r="P149" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>212</v>
       </c>
       <c r="B150" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C150" t="s">
+        <v>67</v>
+      </c>
+      <c r="D150" t="s">
+        <v>192</v>
+      </c>
+      <c r="E150" t="s">
+        <v>242</v>
+      </c>
+      <c r="F150" t="s">
+        <v>93</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H150" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="I150" t="s">
         <v>68</v>
       </c>
-      <c r="D150" t="s">
-        <v>211</v>
-      </c>
-      <c r="E150" t="s">
-        <v>186</v>
-      </c>
-      <c r="F150" t="s">
-        <v>97</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H150" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="I150" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>213</v>
       </c>
       <c r="B151" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C151" t="s">
+        <v>67</v>
+      </c>
+      <c r="D151" t="s">
+        <v>192</v>
+      </c>
+      <c r="E151" t="s">
+        <v>242</v>
+      </c>
+      <c r="F151" t="s">
+        <v>93</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H151" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="I151" t="s">
         <v>68</v>
       </c>
-      <c r="D151" t="s">
-        <v>211</v>
-      </c>
-      <c r="E151" t="s">
-        <v>186</v>
-      </c>
-      <c r="F151" t="s">
-        <v>97</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H151" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="I151" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>214</v>
       </c>
       <c r="B152" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C152" t="s">
+        <v>67</v>
+      </c>
+      <c r="D152" t="s">
+        <v>192</v>
+      </c>
+      <c r="E152" t="s">
+        <v>242</v>
+      </c>
+      <c r="F152" t="s">
+        <v>93</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H152" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="I152" t="s">
         <v>68</v>
       </c>
-      <c r="D152" t="s">
-        <v>211</v>
-      </c>
-      <c r="E152" t="s">
-        <v>186</v>
-      </c>
-      <c r="F152" t="s">
-        <v>97</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H152" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="I152" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>215</v>
       </c>
       <c r="B153" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C153" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D153" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E153" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F153" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="G153" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H153" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I153" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>216</v>
       </c>
       <c r="B154" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C154" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D154" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E154" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F154" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H154" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I154" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J154" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="K154" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>217</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C155" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="D155" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E155" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="F155" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G155" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="H155" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I155" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J155" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>218</v>
       </c>
       <c r="B156" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C156" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="D156" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E156" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F156" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G156" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H156" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I156" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="J156" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>219</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C157" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D157" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="E157" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F157" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G157" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="H157" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="I157" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="J157" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="K157" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L157" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>220</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C158" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="D158" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="E158" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F158" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="H158" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I158" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="J158" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>221</v>
       </c>
       <c r="B159" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C159" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D159" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="E159" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F159" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>222</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="D160" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E160" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="F160" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G160" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H160" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>223</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C161" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D161" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E161" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F161" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="G161" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H161" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="I161" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="J161" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K161" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L161" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M161" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="N161" t="s">
+        <v>231</v>
+      </c>
+      <c r="O161" t="s">
+        <v>72</v>
+      </c>
+      <c r="P161" t="s">
         <v>92</v>
       </c>
-      <c r="O161" t="s">
-        <v>73</v>
-      </c>
-      <c r="P161" t="s">
-        <v>96</v>
-      </c>
       <c r="Q161" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>224</v>
       </c>
       <c r="B162" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C162" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D162" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="E162" s="20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F162" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>225</v>
       </c>
       <c r="B163" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C163" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D163" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E163" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="F163" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>226</v>
       </c>
       <c r="B164" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D164" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>227</v>
       </c>
       <c r="B165" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D165" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E165" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F165" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>228</v>
       </c>
       <c r="B166" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D166" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>229</v>
       </c>
       <c r="B167" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C167" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>230</v>
       </c>
       <c r="B168" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D168" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>231</v>
       </c>
       <c r="B169" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>232</v>
       </c>
       <c r="B170" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C170" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="D170" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F170" t="s">
+        <v>231</v>
+      </c>
+      <c r="G170" t="s">
         <v>92</v>
       </c>
-      <c r="G170" t="s">
-        <v>96</v>
-      </c>
       <c r="H170" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I170" s="20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="J170" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="K170" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L170" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>233</v>
       </c>
       <c r="B171" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C171" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D171" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E171" t="s">
         <v>43</v>
       </c>
       <c r="F171" t="s">
+        <v>69</v>
+      </c>
+      <c r="G171" t="s">
+        <v>199</v>
+      </c>
+      <c r="H171" t="s">
         <v>70</v>
       </c>
-      <c r="G171" t="s">
-        <v>220</v>
-      </c>
-      <c r="H171" t="s">
-        <v>71</v>
-      </c>
       <c r="I171" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>234</v>
       </c>
       <c r="B172" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C172" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D172" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E172" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F172" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G172" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="H172" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="I172" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J172" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>235</v>
       </c>
       <c r="B173" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C173" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D173" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="E173" t="s">
         <v>43</v>
       </c>
       <c r="F173" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G173" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H173" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I173" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J173" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>236</v>
       </c>
       <c r="B174" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C174" t="s">
         <v>43</v>
       </c>
       <c r="D174" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E174" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="F174" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="G174" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="H174" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>237</v>
       </c>
       <c r="B175" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C175" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D175" t="s">
         <v>43</v>
       </c>
       <c r="E175" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F175" t="s">
+        <v>209</v>
+      </c>
+      <c r="G175" t="s">
+        <v>196</v>
+      </c>
+      <c r="H175" t="s">
+        <v>71</v>
+      </c>
+      <c r="I175" t="s">
+        <v>183</v>
+      </c>
+      <c r="J175" t="s">
         <v>231</v>
       </c>
-      <c r="G175" t="s">
-        <v>217</v>
-      </c>
-      <c r="H175" t="s">
-        <v>232</v>
-      </c>
-      <c r="I175" t="s">
-        <v>198</v>
-      </c>
-      <c r="J175" t="s">
-        <v>92</v>
-      </c>
       <c r="K175" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L175" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="M175" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>238</v>
       </c>
       <c r="B176" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C176" t="s">
         <v>43</v>
       </c>
       <c r="D176" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="E176" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>239</v>
       </c>
@@ -13595,322 +13514,322 @@
         <v>43</v>
       </c>
       <c r="C177" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D177" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="E177" t="s">
         <v>51</v>
       </c>
       <c r="F177" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="G177" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="H177" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="I177" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>240</v>
       </c>
       <c r="B178" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C178" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="D178" t="s">
         <v>51</v>
       </c>
       <c r="E178" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="F178" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="G178" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="H178" t="s">
         <v>43</v>
       </c>
       <c r="I178" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J178" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="K178" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>248</v>
       </c>
       <c r="B179" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C179" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D179" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="E179" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="F179" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
       </c>
       <c r="H179" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>249</v>
       </c>
       <c r="B180" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C180" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D180" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="E180" t="s">
         <v>42</v>
       </c>
       <c r="F180" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="G180" t="s">
+        <v>77</v>
+      </c>
+      <c r="H180" t="s">
         <v>78</v>
       </c>
-      <c r="H180" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>250</v>
       </c>
       <c r="B181" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C181" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D181" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="E181" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F181" t="s">
         <v>42</v>
       </c>
       <c r="G181" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="H181" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>251</v>
       </c>
       <c r="B182" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C182" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D182" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E182" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>252</v>
       </c>
       <c r="B183" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>253</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D184" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>254</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D185" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="G185" t="s">
         <v>42</v>
       </c>
       <c r="H185" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="I185" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J185" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>255</v>
       </c>
       <c r="B186" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C186" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D186" t="s">
         <v>42</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>256</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D187" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="G187" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="H187" t="s">
         <v>42</v>
       </c>
       <c r="I187" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J187" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="K187" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="L187" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>257</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D188" t="s">
         <v>42</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="G188" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>258</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C189" s="22" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D189" t="s">
         <v>42</v>
@@ -13919,30 +13838,30 @@
         <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="G189" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="H189" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I189" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>259</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D190" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>55</v>

--- a/DSMCaseReasoning/src/cases.xlsx
+++ b/DSMCaseReasoning/src/cases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4872D235-E582-47C1-A44C-349B21F1C040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4565347-D89A-4E94-B132-491072D27005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="10" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="243">
   <si>
     <t>ID</t>
   </si>
@@ -996,10 +996,6 @@
   </si>
   <si>
     <t>Curvature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1566,24 +1562,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4B5E7B-DB16-460C-8634-EAB54F114957}">
   <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.73046875" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" customWidth="1"/>
+    <col min="8" max="8" width="17.1328125" customWidth="1"/>
+    <col min="9" max="9" width="10.73046875" customWidth="1"/>
+    <col min="10" max="10" width="18.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1611,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1647,7 +1643,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1679,7 +1675,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1711,7 +1707,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1743,7 +1739,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1775,7 +1771,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1807,7 +1803,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1839,7 +1835,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1871,7 +1867,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>23</v>
       </c>
@@ -1903,7 +1899,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>24</v>
       </c>
@@ -1935,7 +1931,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>25</v>
       </c>
@@ -1967,7 +1963,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>26</v>
       </c>
@@ -1999,7 +1995,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>27</v>
       </c>
@@ -2031,7 +2027,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>30</v>
       </c>
@@ -2063,7 +2059,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>31</v>
       </c>
@@ -2095,7 +2091,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>32</v>
       </c>
@@ -2127,7 +2123,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>33</v>
       </c>
@@ -2159,7 +2155,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>34</v>
       </c>
@@ -2191,7 +2187,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>35</v>
       </c>
@@ -2223,7 +2219,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>38</v>
       </c>
@@ -2255,7 +2251,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>39</v>
       </c>
@@ -2287,7 +2283,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>41</v>
       </c>
@@ -2319,7 +2315,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>42</v>
       </c>
@@ -2351,7 +2347,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>43</v>
       </c>
@@ -2383,7 +2379,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>44</v>
       </c>
@@ -2415,7 +2411,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>45</v>
       </c>
@@ -2447,7 +2443,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>46</v>
       </c>
@@ -2479,7 +2475,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>47</v>
       </c>
@@ -2511,7 +2507,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>51</v>
       </c>
@@ -2543,7 +2539,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>52</v>
       </c>
@@ -2575,7 +2571,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>53</v>
       </c>
@@ -2607,7 +2603,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>54</v>
       </c>
@@ -2639,7 +2635,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>55</v>
       </c>
@@ -2671,7 +2667,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>56</v>
       </c>
@@ -2703,7 +2699,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>57</v>
       </c>
@@ -2735,7 +2731,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>58</v>
       </c>
@@ -2767,7 +2763,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>59</v>
       </c>
@@ -2799,7 +2795,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>60</v>
       </c>
@@ -2831,7 +2827,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>62</v>
       </c>
@@ -2863,7 +2859,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>63</v>
       </c>
@@ -2895,7 +2891,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>64</v>
       </c>
@@ -2927,7 +2923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>65</v>
       </c>
@@ -2959,7 +2955,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>66</v>
       </c>
@@ -2991,7 +2987,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>67</v>
       </c>
@@ -3023,7 +3019,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>68</v>
       </c>
@@ -3055,7 +3051,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>69</v>
       </c>
@@ -3087,7 +3083,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>71</v>
       </c>
@@ -3119,7 +3115,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>72</v>
       </c>
@@ -3151,7 +3147,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>73</v>
       </c>
@@ -3183,7 +3179,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>74</v>
       </c>
@@ -3215,7 +3211,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>75</v>
       </c>
@@ -3247,7 +3243,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>76</v>
       </c>
@@ -3279,7 +3275,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>78</v>
       </c>
@@ -3311,7 +3307,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>79</v>
       </c>
@@ -3343,7 +3339,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>80</v>
       </c>
@@ -3375,7 +3371,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>81</v>
       </c>
@@ -3407,7 +3403,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>82</v>
       </c>
@@ -3439,7 +3435,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>83</v>
       </c>
@@ -3471,7 +3467,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>84</v>
       </c>
@@ -3503,7 +3499,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>85</v>
       </c>
@@ -3535,7 +3531,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>86</v>
       </c>
@@ -3567,7 +3563,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>87</v>
       </c>
@@ -3599,7 +3595,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>88</v>
       </c>
@@ -3631,7 +3627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>89</v>
       </c>
@@ -3663,7 +3659,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>103</v>
       </c>
@@ -3695,7 +3691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>104</v>
       </c>
@@ -3727,7 +3723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>105</v>
       </c>
@@ -3759,7 +3755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>106</v>
       </c>
@@ -3791,7 +3787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>113</v>
       </c>
@@ -3823,7 +3819,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>114</v>
       </c>
@@ -3855,7 +3851,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>115</v>
       </c>
@@ -3887,7 +3883,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>116</v>
       </c>
@@ -3919,7 +3915,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>117</v>
       </c>
@@ -3951,7 +3947,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>118</v>
       </c>
@@ -3983,7 +3979,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>119</v>
       </c>
@@ -4015,7 +4011,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>120</v>
       </c>
@@ -4047,7 +4043,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>121</v>
       </c>
@@ -4079,7 +4075,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>122</v>
       </c>
@@ -4111,7 +4107,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>123</v>
       </c>
@@ -4143,7 +4139,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>124</v>
       </c>
@@ -4175,7 +4171,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>125</v>
       </c>
@@ -4207,7 +4203,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>127</v>
       </c>
@@ -4239,7 +4235,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>128</v>
       </c>
@@ -4271,7 +4267,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>129</v>
       </c>
@@ -4303,7 +4299,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>130</v>
       </c>
@@ -4335,7 +4331,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>131</v>
       </c>
@@ -4367,7 +4363,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>132</v>
       </c>
@@ -4399,7 +4395,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>133</v>
       </c>
@@ -4431,7 +4427,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>134</v>
       </c>
@@ -4463,7 +4459,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>135</v>
       </c>
@@ -4495,7 +4491,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>136</v>
       </c>
@@ -4527,7 +4523,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>138</v>
       </c>
@@ -4559,7 +4555,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>139</v>
       </c>
@@ -4591,7 +4587,7 @@
         <v>4718</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>141</v>
       </c>
@@ -4623,7 +4619,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>143</v>
       </c>
@@ -4655,7 +4651,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>144</v>
       </c>
@@ -4687,7 +4683,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>145</v>
       </c>
@@ -4719,7 +4715,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>147</v>
       </c>
@@ -4751,7 +4747,7 @@
         <v>658.7</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>149</v>
       </c>
@@ -4783,7 +4779,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>150</v>
       </c>
@@ -4815,7 +4811,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>151</v>
       </c>
@@ -4847,7 +4843,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>152</v>
       </c>
@@ -4879,7 +4875,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>153</v>
       </c>
@@ -4911,7 +4907,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>154</v>
       </c>
@@ -4943,7 +4939,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>155</v>
       </c>
@@ -4975,7 +4971,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>156</v>
       </c>
@@ -5007,7 +5003,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>157</v>
       </c>
@@ -5039,7 +5035,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>158</v>
       </c>
@@ -5071,7 +5067,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>159</v>
       </c>
@@ -5103,7 +5099,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>160</v>
       </c>
@@ -5135,7 +5131,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>166</v>
       </c>
@@ -5167,7 +5163,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>167</v>
       </c>
@@ -5199,7 +5195,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>168</v>
       </c>
@@ -5231,7 +5227,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>169</v>
       </c>
@@ -5263,7 +5259,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>170</v>
       </c>
@@ -5295,7 +5291,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>174</v>
       </c>
@@ -5327,7 +5323,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>175</v>
       </c>
@@ -5359,7 +5355,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>176</v>
       </c>
@@ -5391,7 +5387,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>177</v>
       </c>
@@ -5423,7 +5419,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>178</v>
       </c>
@@ -5455,7 +5451,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>179</v>
       </c>
@@ -5487,7 +5483,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>180</v>
       </c>
@@ -5519,7 +5515,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>181</v>
       </c>
@@ -5551,7 +5547,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>182</v>
       </c>
@@ -5583,7 +5579,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>183</v>
       </c>
@@ -5615,7 +5611,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>184</v>
       </c>
@@ -5647,7 +5643,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>185</v>
       </c>
@@ -5679,7 +5675,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>186</v>
       </c>
@@ -5711,7 +5707,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>187</v>
       </c>
@@ -5743,7 +5739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>188</v>
       </c>
@@ -5775,7 +5771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>189</v>
       </c>
@@ -5807,7 +5803,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>190</v>
       </c>
@@ -5839,7 +5835,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>191</v>
       </c>
@@ -5871,7 +5867,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>197</v>
       </c>
@@ -5903,7 +5899,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>198</v>
       </c>
@@ -5935,7 +5931,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>199</v>
       </c>
@@ -5967,7 +5963,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>200</v>
       </c>
@@ -5999,7 +5995,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>201</v>
       </c>
@@ -6031,7 +6027,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>202</v>
       </c>
@@ -6063,7 +6059,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>203</v>
       </c>
@@ -6095,7 +6091,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>204</v>
       </c>
@@ -6127,7 +6123,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>205</v>
       </c>
@@ -6159,7 +6155,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>206</v>
       </c>
@@ -6191,7 +6187,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>207</v>
       </c>
@@ -6223,7 +6219,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>208</v>
       </c>
@@ -6255,7 +6251,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>209</v>
       </c>
@@ -6287,7 +6283,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>210</v>
       </c>
@@ -6319,7 +6315,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>211</v>
       </c>
@@ -6351,7 +6347,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>212</v>
       </c>
@@ -6383,7 +6379,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>213</v>
       </c>
@@ -6415,7 +6411,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>214</v>
       </c>
@@ -6447,7 +6443,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>215</v>
       </c>
@@ -6479,7 +6475,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>216</v>
       </c>
@@ -6511,7 +6507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>217</v>
       </c>
@@ -6543,7 +6539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>218</v>
       </c>
@@ -6575,7 +6571,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>219</v>
       </c>
@@ -6607,7 +6603,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>220</v>
       </c>
@@ -6639,7 +6635,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>221</v>
       </c>
@@ -6671,7 +6667,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>222</v>
       </c>
@@ -6703,7 +6699,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>223</v>
       </c>
@@ -6735,7 +6731,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>224</v>
       </c>
@@ -6767,7 +6763,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>225</v>
       </c>
@@ -6799,7 +6795,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>226</v>
       </c>
@@ -6831,7 +6827,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>227</v>
       </c>
@@ -6863,7 +6859,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>228</v>
       </c>
@@ -6895,7 +6891,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>229</v>
       </c>
@@ -6927,7 +6923,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>230</v>
       </c>
@@ -6959,7 +6955,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>231</v>
       </c>
@@ -6991,7 +6987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>232</v>
       </c>
@@ -7023,7 +7019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>233</v>
       </c>
@@ -7055,7 +7051,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>234</v>
       </c>
@@ -7087,7 +7083,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>235</v>
       </c>
@@ -7119,7 +7115,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>236</v>
       </c>
@@ -7151,7 +7147,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>237</v>
       </c>
@@ -7183,7 +7179,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>238</v>
       </c>
@@ -7215,7 +7211,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>239</v>
       </c>
@@ -7247,7 +7243,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>240</v>
       </c>
@@ -7279,7 +7275,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>248</v>
       </c>
@@ -7311,7 +7307,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>249</v>
       </c>
@@ -7343,7 +7339,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>250</v>
       </c>
@@ -7375,7 +7371,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>251</v>
       </c>
@@ -7407,7 +7403,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>252</v>
       </c>
@@ -7439,7 +7435,7 @@
         <v>87.316000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>253</v>
       </c>
@@ -7471,7 +7467,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>254</v>
       </c>
@@ -7503,7 +7499,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>255</v>
       </c>
@@ -7535,7 +7531,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>256</v>
       </c>
@@ -7567,7 +7563,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>257</v>
       </c>
@@ -7599,7 +7595,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>258</v>
       </c>
@@ -7631,7 +7627,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>259</v>
       </c>
@@ -7681,15 +7677,15 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
@@ -7713,41 +7709,41 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>228</v>
       </c>
       <c r="B3" s="23">
         <v>200</v>
@@ -7785,37 +7781,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B7A103-8910-40A2-A97F-D6DE2A9F3FC6}">
   <dimension ref="A1:X190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" topLeftCell="E175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H185" sqref="H185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" customWidth="1"/>
+    <col min="3" max="3" width="32.1328125" customWidth="1"/>
+    <col min="4" max="4" width="27.265625" customWidth="1"/>
+    <col min="5" max="5" width="32.86328125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.46484375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7889,7 +7885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7909,7 +7905,7 @@
         <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H2" t="s">
         <v>42</v>
@@ -7924,27 +7920,27 @@
         <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M2" t="s">
         <v>43</v>
       </c>
       <c r="N2" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="O2" t="s">
         <v>232</v>
       </c>
-      <c r="O2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
         <v>216</v>
@@ -7965,7 +7961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10</v>
       </c>
@@ -7976,7 +7972,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>11</v>
       </c>
@@ -7984,7 +7980,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -7993,7 +7989,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>12</v>
       </c>
@@ -8001,26 +7997,26 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>20</v>
       </c>
@@ -8028,97 +8024,97 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>25</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>34</v>
       </c>
@@ -8126,10 +8122,10 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>35</v>
       </c>
@@ -8137,7 +8133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>38</v>
       </c>
@@ -8151,7 +8147,7 @@
         <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F21" t="s">
         <v>186</v>
@@ -8169,7 +8165,7 @@
         <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
         <v>165</v>
@@ -8181,12 +8177,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s">
         <v>206</v>
@@ -8195,10 +8191,10 @@
         <v>65</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G22" t="s">
         <v>218</v>
@@ -8210,7 +8206,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>41</v>
       </c>
@@ -8218,7 +8214,7 @@
         <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
         <v>146</v>
@@ -8242,7 +8238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>42</v>
       </c>
@@ -8250,7 +8246,7 @@
         <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
         <v>146</v>
@@ -8274,7 +8270,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>43</v>
       </c>
@@ -8285,7 +8281,7 @@
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E25" t="s">
         <v>115</v>
@@ -8312,7 +8308,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>44</v>
       </c>
@@ -8341,13 +8337,13 @@
         <v>180</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>45</v>
       </c>
@@ -8364,7 +8360,7 @@
         <v>216</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
         <v>131</v>
@@ -8376,41 +8372,41 @@
         <v>180</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F29" t="s">
         <v>90</v>
@@ -8421,12 +8417,12 @@
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" t="s">
         <v>87</v>
@@ -8435,12 +8431,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
@@ -8452,12 +8448,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
@@ -8478,12 +8474,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" t="s">
         <v>197</v>
@@ -8498,12 +8494,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
@@ -8527,12 +8523,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C35" t="s">
         <v>91</v>
@@ -8541,7 +8537,7 @@
         <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -8550,13 +8546,13 @@
         <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>57</v>
       </c>
@@ -8564,13 +8560,13 @@
         <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F36" t="s">
         <v>65</v>
@@ -8584,7 +8580,7 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>58</v>
       </c>
@@ -8595,7 +8591,7 @@
         <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E37" t="s">
         <v>92</v>
@@ -8604,7 +8600,7 @@
         <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H37" t="s">
         <v>81</v>
@@ -8613,7 +8609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>59</v>
       </c>
@@ -8624,10 +8620,10 @@
         <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>169</v>
@@ -8639,13 +8635,13 @@
         <v>168</v>
       </c>
       <c r="I38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>60</v>
       </c>
@@ -8656,13 +8652,13 @@
         <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E39" t="s">
         <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G39" t="s">
         <v>63</v>
@@ -8671,10 +8667,10 @@
         <v>73</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>62</v>
       </c>
@@ -8682,7 +8678,7 @@
         <v>207</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D40" t="s">
         <v>65</v>
@@ -8706,18 +8702,18 @@
         <v>180</v>
       </c>
       <c r="K40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" t="s">
         <v>174</v>
@@ -8738,12 +8734,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>169</v>
@@ -8765,7 +8761,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>65</v>
       </c>
@@ -8785,7 +8781,7 @@
         <v>207</v>
       </c>
       <c r="G43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H43" t="s">
         <v>162</v>
@@ -8800,7 +8796,7 @@
         <v>182</v>
       </c>
       <c r="L43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
@@ -8815,7 +8811,7 @@
       <c r="W43" s="14"/>
       <c r="X43" s="14"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>66</v>
       </c>
@@ -8832,7 +8828,7 @@
         <v>162</v>
       </c>
       <c r="F44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G44" t="s">
         <v>136</v>
@@ -8850,7 +8846,7 @@
         <v>182</v>
       </c>
       <c r="L44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
@@ -8865,7 +8861,7 @@
       <c r="W44" s="14"/>
       <c r="X44" s="14"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>67</v>
       </c>
@@ -8879,7 +8875,7 @@
         <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>60</v>
@@ -8900,7 +8896,7 @@
         <v>182</v>
       </c>
       <c r="L45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
@@ -8915,7 +8911,7 @@
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>68</v>
       </c>
@@ -8926,7 +8922,7 @@
         <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E46" t="s">
         <v>53</v>
@@ -8950,7 +8946,7 @@
         <v>207</v>
       </c>
       <c r="L46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
@@ -8965,7 +8961,7 @@
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>69</v>
       </c>
@@ -8973,7 +8969,7 @@
         <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D47" t="s">
         <v>53</v>
@@ -9000,7 +8996,7 @@
         <v>207</v>
       </c>
       <c r="L47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
@@ -9015,7 +9011,7 @@
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>71</v>
       </c>
@@ -9041,7 +9037,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>72</v>
       </c>
@@ -9064,16 +9060,16 @@
         <v>206</v>
       </c>
       <c r="H49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>92</v>
@@ -9088,7 +9084,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>73</v>
       </c>
@@ -9111,16 +9107,16 @@
         <v>206</v>
       </c>
       <c r="H50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>92</v>
@@ -9135,7 +9131,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>74</v>
       </c>
@@ -9158,16 +9154,16 @@
         <v>206</v>
       </c>
       <c r="H51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>92</v>
@@ -9182,7 +9178,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>75</v>
       </c>
@@ -9205,16 +9201,16 @@
         <v>206</v>
       </c>
       <c r="H52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>92</v>
@@ -9229,7 +9225,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>76</v>
       </c>
@@ -9252,16 +9248,16 @@
         <v>206</v>
       </c>
       <c r="H53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>92</v>
@@ -9276,7 +9272,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>78</v>
       </c>
@@ -9287,7 +9283,7 @@
         <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E54" t="s">
         <v>120</v>
@@ -9314,30 +9310,30 @@
         <v>180</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O54" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P54" s="17" t="s">
         <v>122</v>
       </c>
       <c r="Q54" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R54" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
@@ -9364,16 +9360,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s">
         <v>41</v>
       </c>
       <c r="N55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O55" t="s">
         <v>119</v>
@@ -9382,13 +9378,13 @@
         <v>90</v>
       </c>
       <c r="Q55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>80</v>
       </c>
@@ -9420,31 +9416,31 @@
         <v>180</v>
       </c>
       <c r="K56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L56" t="s">
         <v>93</v>
       </c>
       <c r="M56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P56" t="s">
         <v>41</v>
       </c>
       <c r="Q56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R56" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>81</v>
       </c>
@@ -9485,10 +9481,10 @@
         <v>131</v>
       </c>
       <c r="N57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>52</v>
@@ -9502,7 +9498,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>82</v>
       </c>
@@ -9534,19 +9530,19 @@
         <v>114</v>
       </c>
       <c r="K58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L58" t="s">
         <v>131</v>
       </c>
       <c r="M58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N58" t="s">
         <v>55</v>
       </c>
       <c r="O58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P58" t="s">
         <v>181</v>
@@ -9566,7 +9562,7 @@
       <c r="W58" s="8"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>83</v>
       </c>
@@ -9589,7 +9585,7 @@
         <v>188</v>
       </c>
       <c r="H59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I59" t="s">
         <v>131</v>
@@ -9630,7 +9626,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="8"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>84</v>
       </c>
@@ -9638,7 +9634,7 @@
         <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D60" t="s">
         <v>57</v>
@@ -9671,7 +9667,7 @@
         <v>49</v>
       </c>
       <c r="N60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
@@ -9684,7 +9680,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>85</v>
       </c>
@@ -9698,7 +9694,7 @@
         <v>58</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F61" t="s">
         <v>131</v>
@@ -9738,7 +9734,7 @@
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>86</v>
       </c>
@@ -9752,7 +9748,7 @@
         <v>53</v>
       </c>
       <c r="E62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F62" t="s">
         <v>131</v>
@@ -9791,7 +9787,7 @@
         <v>59</v>
       </c>
       <c r="R62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S62" t="s">
         <v>52</v>
@@ -9805,7 +9801,7 @@
       <c r="W62" s="8"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>87</v>
       </c>
@@ -9842,7 +9838,7 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>88</v>
       </c>
@@ -9856,7 +9852,7 @@
         <v>160</v>
       </c>
       <c r="E64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -9865,7 +9861,7 @@
         <v>93</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I64" t="s">
         <v>90</v>
@@ -9887,7 +9883,7 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>89</v>
       </c>
@@ -9931,7 +9927,7 @@
         <v>90</v>
       </c>
       <c r="O65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P65" s="8"/>
       <c r="Q65" s="9"/>
@@ -9940,7 +9936,7 @@
       <c r="T65" s="9"/>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>103</v>
       </c>
@@ -9960,22 +9956,22 @@
         <v>139</v>
       </c>
       <c r="G66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H66" t="s">
         <v>131</v>
       </c>
       <c r="I66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>43</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>104</v>
       </c>
@@ -9992,13 +9988,13 @@
         <v>181</v>
       </c>
       <c r="F67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G67" t="s">
         <v>114</v>
       </c>
       <c r="H67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I67" t="s">
         <v>43</v>
@@ -10007,7 +10003,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>105</v>
       </c>
@@ -10015,7 +10011,7 @@
         <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D68" t="s">
         <v>139</v>
@@ -10027,7 +10023,7 @@
         <v>140</v>
       </c>
       <c r="G68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H68" t="s">
         <v>52</v>
@@ -10039,13 +10035,13 @@
         <v>58</v>
       </c>
       <c r="K68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L68" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>106</v>
       </c>
@@ -10056,7 +10052,7 @@
         <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E69" t="s">
         <v>114</v>
@@ -10065,19 +10061,19 @@
         <v>139</v>
       </c>
       <c r="G69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H69" t="s">
         <v>181</v>
       </c>
       <c r="I69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J69" s="20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>113</v>
       </c>
@@ -10091,31 +10087,31 @@
         <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G70" t="s">
         <v>205</v>
       </c>
       <c r="H70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J70" t="s">
         <v>101</v>
       </c>
       <c r="K70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>114</v>
       </c>
@@ -10132,22 +10128,22 @@
         <v>205</v>
       </c>
       <c r="F71" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G71" t="s">
+        <v>232</v>
+      </c>
+      <c r="H71" t="s">
+        <v>238</v>
+      </c>
+      <c r="I71" t="s">
+        <v>233</v>
+      </c>
+      <c r="J71" t="s">
         <v>231</v>
       </c>
-      <c r="G71" t="s">
-        <v>233</v>
-      </c>
-      <c r="H71" t="s">
-        <v>239</v>
-      </c>
-      <c r="I71" t="s">
-        <v>234</v>
-      </c>
-      <c r="J71" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>115</v>
       </c>
@@ -10161,28 +10157,28 @@
         <v>68</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H72" t="s">
         <v>205</v>
       </c>
       <c r="I72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J72" t="s">
         <v>176</v>
       </c>
       <c r="K72" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>116</v>
       </c>
@@ -10196,53 +10192,53 @@
         <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F73" t="s">
         <v>205</v>
       </c>
       <c r="G73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H73" t="s">
         <v>176</v>
       </c>
       <c r="I73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J73" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>117</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E75" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>119</v>
       </c>
@@ -10250,13 +10246,13 @@
         <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>120</v>
       </c>
@@ -10267,10 +10263,10 @@
         <v>218</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>121</v>
       </c>
@@ -10278,10 +10274,10 @@
         <v>218</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E78" t="s">
         <v>43</v>
@@ -10290,12 +10286,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" t="s">
         <v>43</v>
@@ -10310,7 +10306,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>123</v>
       </c>
@@ -10318,13 +10314,13 @@
         <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D80" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>124</v>
       </c>
@@ -10338,7 +10334,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>125</v>
       </c>
@@ -10355,27 +10351,27 @@
         <v>63</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H82" t="s">
         <v>205</v>
       </c>
       <c r="I82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J82" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>127</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C83" t="s">
         <v>173</v>
@@ -10384,25 +10380,25 @@
         <v>173</v>
       </c>
       <c r="E83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F83" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G83" t="s">
+        <v>233</v>
+      </c>
+      <c r="H83" t="s">
         <v>234</v>
-      </c>
-      <c r="G83" t="s">
-        <v>234</v>
-      </c>
-      <c r="H83" t="s">
-        <v>235</v>
       </c>
       <c r="I83" t="s">
         <v>52</v>
       </c>
       <c r="J83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L83" t="s">
         <v>101</v>
@@ -10426,7 +10422,7 @@
         <v>95</v>
       </c>
       <c r="S83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T83" t="s">
         <v>194</v>
@@ -10435,12 +10431,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C84" t="s">
         <v>173</v>
@@ -10449,25 +10445,25 @@
         <v>173</v>
       </c>
       <c r="E84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F84" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G84" t="s">
+        <v>233</v>
+      </c>
+      <c r="H84" t="s">
         <v>234</v>
-      </c>
-      <c r="G84" t="s">
-        <v>234</v>
-      </c>
-      <c r="H84" t="s">
-        <v>235</v>
       </c>
       <c r="I84" t="s">
         <v>52</v>
       </c>
       <c r="J84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L84" t="s">
         <v>101</v>
@@ -10491,7 +10487,7 @@
         <v>95</v>
       </c>
       <c r="S84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T84" t="s">
         <v>194</v>
@@ -10500,7 +10496,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>129</v>
       </c>
@@ -10511,19 +10507,19 @@
         <v>144</v>
       </c>
       <c r="D85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E85" t="s">
         <v>92</v>
       </c>
       <c r="F85" t="s">
+        <v>232</v>
+      </c>
+      <c r="G85" t="s">
+        <v>231</v>
+      </c>
+      <c r="H85" t="s">
         <v>233</v>
-      </c>
-      <c r="G85" t="s">
-        <v>232</v>
-      </c>
-      <c r="H85" t="s">
-        <v>234</v>
       </c>
       <c r="I85" t="s">
         <v>52</v>
@@ -10536,7 +10532,7 @@
       <c r="O85" s="9"/>
       <c r="P85" s="11"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>130</v>
       </c>
@@ -10550,19 +10546,19 @@
         <v>92</v>
       </c>
       <c r="E86" t="s">
+        <v>230</v>
+      </c>
+      <c r="F86" t="s">
+        <v>232</v>
+      </c>
+      <c r="G86" t="s">
         <v>231</v>
-      </c>
-      <c r="F86" t="s">
-        <v>233</v>
-      </c>
-      <c r="G86" t="s">
-        <v>232</v>
       </c>
       <c r="H86" t="s">
         <v>52</v>
       </c>
       <c r="I86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -10572,24 +10568,24 @@
       <c r="O86" s="9"/>
       <c r="P86" s="11"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>131</v>
       </c>
       <c r="B87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C87" t="s">
         <v>92</v>
       </c>
       <c r="D87" t="s">
+        <v>232</v>
+      </c>
+      <c r="E87" t="s">
+        <v>231</v>
+      </c>
+      <c r="F87" t="s">
         <v>233</v>
-      </c>
-      <c r="E87" t="s">
-        <v>232</v>
-      </c>
-      <c r="F87" t="s">
-        <v>234</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -10608,27 +10604,27 @@
       <c r="O87" s="9"/>
       <c r="P87" s="11"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>132</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C88" t="s">
         <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F88" t="s">
         <v>52</v>
       </c>
       <c r="G88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H88" t="s">
         <v>43</v>
@@ -10644,7 +10640,7 @@
       <c r="O88" s="9"/>
       <c r="P88" s="11"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>133</v>
       </c>
@@ -10670,7 +10666,7 @@
         <v>68</v>
       </c>
       <c r="I89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J89" t="s">
         <v>63</v>
@@ -10682,13 +10678,13 @@
         <v>180</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P89" s="6" t="s">
         <v>52</v>
@@ -10700,10 +10696,10 @@
         <v>82</v>
       </c>
       <c r="T89" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="V89" s="20" t="s">
         <v>232</v>
-      </c>
-      <c r="V89" s="20" t="s">
-        <v>233</v>
       </c>
       <c r="W89" t="s">
         <v>81</v>
@@ -10712,7 +10708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>134</v>
       </c>
@@ -10723,7 +10719,7 @@
         <v>160</v>
       </c>
       <c r="D90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E90" t="s">
         <v>137</v>
@@ -10738,7 +10734,7 @@
         <v>167</v>
       </c>
       <c r="J90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K90" t="s">
         <v>153</v>
@@ -10751,13 +10747,13 @@
       </c>
       <c r="N90" s="7"/>
       <c r="O90" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P90" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R90" s="6" t="s">
         <v>52</v>
@@ -10772,16 +10768,16 @@
         <v>180</v>
       </c>
       <c r="V90" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W90" t="s">
         <v>81</v>
       </c>
       <c r="X90" s="20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>135</v>
       </c>
@@ -10789,10 +10785,10 @@
         <v>101</v>
       </c>
       <c r="C91" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>173</v>
@@ -10804,7 +10800,7 @@
         <v>42</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I91" t="s">
         <v>180</v>
@@ -10819,7 +10815,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>136</v>
       </c>
@@ -10827,10 +10823,10 @@
         <v>101</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>173</v>
@@ -10842,7 +10838,7 @@
         <v>42</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I92" t="s">
         <v>180</v>
@@ -10857,7 +10853,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>138</v>
       </c>
@@ -10868,7 +10864,7 @@
         <v>98</v>
       </c>
       <c r="D93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E93" t="s">
         <v>185</v>
@@ -10883,10 +10879,10 @@
         <v>100</v>
       </c>
       <c r="I93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K93" t="s">
         <v>101</v>
@@ -10898,21 +10894,21 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>139</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D94" t="s">
         <v>116</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F94" t="s">
         <v>123</v>
@@ -10924,7 +10920,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>141</v>
       </c>
@@ -10932,16 +10928,16 @@
         <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D95" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G95" t="s">
         <v>206</v>
@@ -10950,7 +10946,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>143</v>
       </c>
@@ -10967,19 +10963,19 @@
         <v>137</v>
       </c>
       <c r="F96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>93</v>
       </c>
       <c r="H96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I96" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>144</v>
       </c>
@@ -10999,7 +10995,7 @@
         <v>81</v>
       </c>
       <c r="G97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H97" t="s">
         <v>162</v>
@@ -11008,7 +11004,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>145</v>
       </c>
@@ -11022,13 +11018,13 @@
         <v>175</v>
       </c>
       <c r="E98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F98" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>147</v>
       </c>
@@ -11039,7 +11035,7 @@
         <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="11"/>
@@ -11053,7 +11049,7 @@
       <c r="N99" s="9"/>
       <c r="O99" s="8"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>149</v>
       </c>
@@ -11061,7 +11057,7 @@
         <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D100" t="s">
         <v>182</v>
@@ -11077,7 +11073,7 @@
       </c>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>150</v>
       </c>
@@ -11085,7 +11081,7 @@
         <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D101" t="s">
         <v>182</v>
@@ -11103,7 +11099,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>151</v>
       </c>
@@ -11129,10 +11125,10 @@
         <v>140</v>
       </c>
       <c r="I102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K102" t="s">
         <v>52</v>
@@ -11141,7 +11137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>152</v>
       </c>
@@ -11149,7 +11145,7 @@
         <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D103" t="s">
         <v>140</v>
@@ -11167,10 +11163,10 @@
         <v>146</v>
       </c>
       <c r="I103" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>153</v>
       </c>
@@ -11178,10 +11174,10 @@
         <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E104" t="s">
         <v>52</v>
@@ -11202,15 +11198,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>154</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D105" t="s">
         <v>52</v>
@@ -11234,7 +11230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>155</v>
       </c>
@@ -11251,7 +11247,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>156</v>
       </c>
@@ -11259,16 +11255,16 @@
         <v>45</v>
       </c>
       <c r="C107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E107" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>157</v>
       </c>
@@ -11279,10 +11275,10 @@
         <v>206</v>
       </c>
       <c r="D108" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>158</v>
       </c>
@@ -11290,10 +11286,10 @@
         <v>45</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>159</v>
       </c>
@@ -11304,10 +11300,10 @@
         <v>83</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>160</v>
       </c>
@@ -11315,10 +11311,10 @@
         <v>45</v>
       </c>
       <c r="C111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D111" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E111" t="s">
         <v>52</v>
@@ -11327,21 +11323,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>166</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D112" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E112" s="20" t="s">
         <v>231</v>
-      </c>
-      <c r="E112" s="20" t="s">
-        <v>232</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>220</v>
@@ -11354,21 +11350,21 @@
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>167</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C113" t="s">
         <v>92</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>221</v>
@@ -11377,25 +11373,25 @@
         <v>222</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>168</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C114" t="s">
         <v>92</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>221</v>
@@ -11404,25 +11400,25 @@
         <v>222</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>169</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C115" t="s">
         <v>92</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>221</v>
@@ -11431,25 +11427,25 @@
         <v>222</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>170</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C116" t="s">
         <v>92</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>221</v>
@@ -11458,11 +11454,11 @@
         <v>222</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>174</v>
       </c>
@@ -11491,19 +11487,19 @@
         <v>72</v>
       </c>
       <c r="J117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K117" t="s">
         <v>68</v>
       </c>
       <c r="L117" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M117" t="s">
         <v>114</v>
       </c>
       <c r="N117" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O117" t="s">
         <v>146</v>
@@ -11512,7 +11508,7 @@
         <v>52</v>
       </c>
       <c r="R117" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S117" t="s">
         <v>173</v>
@@ -11521,7 +11517,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>175</v>
       </c>
@@ -11529,7 +11525,7 @@
         <v>91</v>
       </c>
       <c r="C118" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D118" t="s">
         <v>113</v>
@@ -11559,7 +11555,7 @@
         <v>184</v>
       </c>
       <c r="M118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N118" t="s">
         <v>52</v>
@@ -11568,7 +11564,7 @@
         <v>146</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q118" t="s">
         <v>218</v>
@@ -11577,7 +11573,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>176</v>
       </c>
@@ -11585,7 +11581,7 @@
         <v>72</v>
       </c>
       <c r="C119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D119" t="s">
         <v>68</v>
@@ -11609,13 +11605,13 @@
         <v>207</v>
       </c>
       <c r="K119" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L119" t="s">
         <v>114</v>
       </c>
       <c r="M119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N119" t="s">
         <v>52</v>
@@ -11624,7 +11620,7 @@
         <v>146</v>
       </c>
       <c r="P119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q119" t="s">
         <v>218</v>
@@ -11633,7 +11629,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>177</v>
       </c>
@@ -11653,19 +11649,19 @@
         <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H120" t="s">
         <v>162</v>
       </c>
       <c r="I120" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J120" t="s">
         <v>92</v>
       </c>
       <c r="K120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L120" t="s">
         <v>52</v>
@@ -11680,7 +11676,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>178</v>
       </c>
@@ -11709,19 +11705,19 @@
         <v>72</v>
       </c>
       <c r="J121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L121" t="s">
         <v>114</v>
       </c>
       <c r="M121" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>179</v>
       </c>
@@ -11741,10 +11737,10 @@
         <v>92</v>
       </c>
       <c r="G122" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I122" t="s">
         <v>131</v>
@@ -11762,7 +11758,7 @@
         <v>146</v>
       </c>
       <c r="N122" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O122" s="15" t="s">
         <v>114</v>
@@ -11775,7 +11771,7 @@
       </c>
       <c r="R122" s="15"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>180</v>
       </c>
@@ -11789,13 +11785,13 @@
         <v>181</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
         <v>131</v>
       </c>
       <c r="G123" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H123" t="s">
         <v>92</v>
@@ -11816,7 +11812,7 @@
         <v>146</v>
       </c>
       <c r="N123" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O123" s="15" t="s">
         <v>114</v>
@@ -11829,7 +11825,7 @@
       </c>
       <c r="R123" s="15"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>181</v>
       </c>
@@ -11846,13 +11842,13 @@
         <v>92</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G124" t="s">
         <v>114</v>
       </c>
       <c r="H124" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I124" t="s">
         <v>181</v>
@@ -11883,7 +11879,7 @@
       </c>
       <c r="R124" s="15"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>182</v>
       </c>
@@ -11897,7 +11893,7 @@
         <v>40</v>
       </c>
       <c r="E125" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F125" t="s">
         <v>181</v>
@@ -11909,7 +11905,7 @@
         <v>92</v>
       </c>
       <c r="I125" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J125" s="16" t="s">
         <v>180</v>
@@ -11927,7 +11923,7 @@
         <v>146</v>
       </c>
       <c r="O125" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P125" s="15" t="s">
         <v>114</v>
@@ -11937,7 +11933,7 @@
       </c>
       <c r="R125" s="15"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>183</v>
       </c>
@@ -11957,16 +11953,16 @@
         <v>181</v>
       </c>
       <c r="G126" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H126" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I126" t="s">
         <v>92</v>
       </c>
       <c r="J126" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K126" s="16" t="s">
         <v>180</v>
@@ -11991,7 +11987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>184</v>
       </c>
@@ -12005,19 +12001,19 @@
         <v>68</v>
       </c>
       <c r="E127" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F127" t="s">
         <v>181</v>
       </c>
       <c r="G127" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H127" t="s">
         <v>114</v>
       </c>
       <c r="I127" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J127" t="s">
         <v>92</v>
@@ -12044,7 +12040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>185</v>
       </c>
@@ -12067,13 +12063,13 @@
         <v>42</v>
       </c>
       <c r="H128" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K128" s="17" t="s">
         <v>204</v>
@@ -12088,13 +12084,13 @@
         <v>101</v>
       </c>
       <c r="O128" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P128" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>186</v>
       </c>
@@ -12114,13 +12110,13 @@
         <v>207</v>
       </c>
       <c r="G129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J129" s="16" t="s">
         <v>42</v>
@@ -12138,54 +12134,54 @@
         <v>101</v>
       </c>
       <c r="O129" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P129" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>189</v>
       </c>
       <c r="B132" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C132" t="s">
         <v>152</v>
       </c>
       <c r="D132" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D133" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>104</v>
@@ -12203,27 +12199,27 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C134" t="s">
         <v>173</v>
       </c>
       <c r="D134" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E134" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E134" s="20" t="s">
-        <v>234</v>
-      </c>
       <c r="F134" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>197</v>
       </c>
@@ -12237,7 +12233,7 @@
         <v>205</v>
       </c>
       <c r="E135" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F135" t="s">
         <v>128</v>
@@ -12246,13 +12242,13 @@
         <v>131</v>
       </c>
       <c r="H135" t="s">
+        <v>232</v>
+      </c>
+      <c r="I135" t="s">
         <v>233</v>
       </c>
-      <c r="I135" t="s">
-        <v>234</v>
-      </c>
       <c r="J135" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K135" t="s">
         <v>101</v>
@@ -12270,13 +12266,13 @@
         <v>154</v>
       </c>
       <c r="P135" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q135" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>198</v>
       </c>
@@ -12284,13 +12280,13 @@
         <v>160</v>
       </c>
       <c r="C136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D136" t="s">
         <v>146</v>
       </c>
       <c r="E136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F136" t="s">
         <v>181</v>
@@ -12308,7 +12304,7 @@
         <v>128</v>
       </c>
       <c r="K136" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>176</v>
@@ -12317,10 +12313,10 @@
         <v>101</v>
       </c>
       <c r="N136" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P136" s="7" t="s">
         <v>68</v>
@@ -12329,7 +12325,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>199</v>
       </c>
@@ -12346,13 +12342,13 @@
         <v>205</v>
       </c>
       <c r="F137" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G137" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I137" t="s">
         <v>131</v>
@@ -12361,7 +12357,7 @@
         <v>181</v>
       </c>
       <c r="K137" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L137" s="7" t="s">
         <v>128</v>
@@ -12373,7 +12369,7 @@
         <v>101</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P137" s="7" t="s">
         <v>68</v>
@@ -12382,7 +12378,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>200</v>
       </c>
@@ -12396,16 +12392,16 @@
         <v>131</v>
       </c>
       <c r="E138" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F138" t="s">
         <v>181</v>
       </c>
       <c r="G138" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H138" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I138" t="s">
         <v>68</v>
@@ -12417,7 +12413,7 @@
         <v>176</v>
       </c>
       <c r="L138" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M138" s="7" t="s">
         <v>155</v>
@@ -12429,13 +12425,13 @@
         <v>146</v>
       </c>
       <c r="P138" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q138" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>201</v>
       </c>
@@ -12443,7 +12439,7 @@
         <v>219</v>
       </c>
       <c r="C139" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>173</v>
@@ -12453,7 +12449,7 @@
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>202</v>
       </c>
@@ -12464,16 +12460,16 @@
         <v>219</v>
       </c>
       <c r="D140" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>203</v>
       </c>
@@ -12484,10 +12480,10 @@
         <v>106</v>
       </c>
       <c r="D141" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>204</v>
       </c>
@@ -12498,15 +12494,15 @@
         <v>106</v>
       </c>
       <c r="D142" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>205</v>
       </c>
       <c r="B143" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C143" t="s">
         <v>109</v>
@@ -12518,7 +12514,7 @@
         <v>52</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G143" t="s">
         <v>42</v>
@@ -12530,7 +12526,7 @@
         <v>110</v>
       </c>
       <c r="J143" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K143" t="s">
         <v>43</v>
@@ -12542,12 +12538,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>206</v>
       </c>
       <c r="B144" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C144" t="s">
         <v>52</v>
@@ -12556,7 +12552,7 @@
         <v>206</v>
       </c>
       <c r="E144" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F144" t="s">
         <v>109</v>
@@ -12565,7 +12561,7 @@
         <v>110</v>
       </c>
       <c r="H144" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I144" t="s">
         <v>81</v>
@@ -12583,15 +12579,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>207</v>
       </c>
       <c r="B145" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C145" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D145" t="s">
         <v>43</v>
@@ -12600,7 +12596,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>208</v>
       </c>
@@ -12611,16 +12607,16 @@
         <v>68</v>
       </c>
       <c r="D146" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E146" t="s">
         <v>207</v>
       </c>
       <c r="G146" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H146" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I146" t="s">
         <v>160</v>
@@ -12632,7 +12628,7 @@
         <v>117</v>
       </c>
       <c r="L146" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M146" t="s">
         <v>125</v>
@@ -12644,7 +12640,7 @@
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>209</v>
       </c>
@@ -12658,16 +12654,16 @@
         <v>177</v>
       </c>
       <c r="E147" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F147" t="s">
         <v>207</v>
       </c>
       <c r="G147" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H147" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I147" t="s">
         <v>160</v>
@@ -12688,11 +12684,11 @@
         <v>117</v>
       </c>
       <c r="P147" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q147" s="7"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>210</v>
       </c>
@@ -12712,7 +12708,7 @@
         <v>207</v>
       </c>
       <c r="G148" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H148" t="s">
         <v>160</v>
@@ -12730,21 +12726,21 @@
         <v>180</v>
       </c>
       <c r="N148" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O148" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P148" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>211</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C149" t="s">
         <v>118</v>
@@ -12762,7 +12758,7 @@
         <v>160</v>
       </c>
       <c r="H149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I149" t="s">
         <v>207</v>
@@ -12780,13 +12776,13 @@
         <v>124</v>
       </c>
       <c r="O149" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P149" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>212</v>
       </c>
@@ -12800,7 +12796,7 @@
         <v>192</v>
       </c>
       <c r="E150" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F150" t="s">
         <v>93</v>
@@ -12809,13 +12805,13 @@
         <v>72</v>
       </c>
       <c r="H150" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I150" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>213</v>
       </c>
@@ -12829,7 +12825,7 @@
         <v>192</v>
       </c>
       <c r="E151" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F151" t="s">
         <v>93</v>
@@ -12838,13 +12834,13 @@
         <v>72</v>
       </c>
       <c r="H151" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I151" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>214</v>
       </c>
@@ -12858,7 +12854,7 @@
         <v>192</v>
       </c>
       <c r="E152" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F152" t="s">
         <v>93</v>
@@ -12867,13 +12863,13 @@
         <v>72</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I152" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>215</v>
       </c>
@@ -12890,7 +12886,7 @@
         <v>93</v>
       </c>
       <c r="F153" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G153" t="s">
         <v>130</v>
@@ -12902,7 +12898,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>216</v>
       </c>
@@ -12919,7 +12915,7 @@
         <v>129</v>
       </c>
       <c r="F154" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G154" s="20" t="s">
         <v>162</v>
@@ -12931,13 +12927,13 @@
         <v>133</v>
       </c>
       <c r="J154" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K154" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>217</v>
       </c>
@@ -12945,19 +12941,19 @@
         <v>195</v>
       </c>
       <c r="C155" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D155" t="s">
         <v>129</v>
       </c>
       <c r="E155" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F155" t="s">
         <v>128</v>
       </c>
       <c r="G155" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H155" t="s">
         <v>132</v>
@@ -12969,7 +12965,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>218</v>
       </c>
@@ -12995,13 +12991,13 @@
         <v>129</v>
       </c>
       <c r="I156" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J156" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>219</v>
       </c>
@@ -13012,7 +13008,7 @@
         <v>128</v>
       </c>
       <c r="D157" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E157" t="s">
         <v>132</v>
@@ -13021,16 +13017,16 @@
         <v>128</v>
       </c>
       <c r="G157" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I157" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J157" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K157" t="s">
         <v>132</v>
@@ -13039,7 +13035,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>220</v>
       </c>
@@ -13047,16 +13043,16 @@
         <v>195</v>
       </c>
       <c r="C158" t="s">
+        <v>231</v>
+      </c>
+      <c r="D158" t="s">
         <v>232</v>
-      </c>
-      <c r="D158" t="s">
-        <v>233</v>
       </c>
       <c r="E158" t="s">
         <v>130</v>
       </c>
       <c r="F158" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G158" s="6" t="s">
         <v>135</v>
@@ -13065,13 +13061,13 @@
         <v>129</v>
       </c>
       <c r="I158" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J158" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>221</v>
       </c>
@@ -13082,7 +13078,7 @@
         <v>128</v>
       </c>
       <c r="D159" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E159" t="s">
         <v>93</v>
@@ -13091,7 +13087,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>222</v>
       </c>
@@ -13099,13 +13095,13 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D160" t="s">
         <v>93</v>
       </c>
       <c r="E160" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F160" t="s">
         <v>128</v>
@@ -13117,7 +13113,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>223</v>
       </c>
@@ -13134,16 +13130,16 @@
         <v>128</v>
       </c>
       <c r="F161" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G161" t="s">
         <v>132</v>
       </c>
       <c r="H161" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I161" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J161" t="s">
         <v>129</v>
@@ -13155,10 +13151,10 @@
         <v>93</v>
       </c>
       <c r="M161" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N161" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O161" t="s">
         <v>72</v>
@@ -13170,7 +13166,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>224</v>
       </c>
@@ -13178,10 +13174,10 @@
         <v>131</v>
       </c>
       <c r="C162" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D162" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E162" s="20" t="s">
         <v>162</v>
@@ -13190,7 +13186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>225</v>
       </c>
@@ -13198,19 +13194,19 @@
         <v>131</v>
       </c>
       <c r="C163" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D163" t="s">
         <v>93</v>
       </c>
       <c r="E163" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F163" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>226</v>
       </c>
@@ -13224,12 +13220,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>227</v>
       </c>
       <c r="B165" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>135</v>
@@ -13244,12 +13240,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>228</v>
       </c>
       <c r="B166" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>135</v>
@@ -13258,23 +13254,23 @@
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>229</v>
       </c>
       <c r="B167" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C167" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>230</v>
       </c>
       <c r="B168" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>135</v>
@@ -13283,7 +13279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>231</v>
       </c>
@@ -13291,7 +13287,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>232</v>
       </c>
@@ -13302,13 +13298,13 @@
         <v>195</v>
       </c>
       <c r="D170" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F170" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G170" t="s">
         <v>92</v>
@@ -13320,21 +13316,21 @@
         <v>162</v>
       </c>
       <c r="J170" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K170" t="s">
         <v>128</v>
       </c>
       <c r="L170" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>233</v>
       </c>
       <c r="B171" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C171" t="s">
         <v>114</v>
@@ -13358,12 +13354,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>234</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C172" t="s">
         <v>114</v>
@@ -13390,18 +13386,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>235</v>
       </c>
       <c r="B173" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C173" t="s">
         <v>198</v>
       </c>
       <c r="D173" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E173" t="s">
         <v>43</v>
@@ -13422,12 +13418,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>236</v>
       </c>
       <c r="B174" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C174" t="s">
         <v>43</v>
@@ -13448,12 +13444,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>237</v>
       </c>
       <c r="B175" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C175" t="s">
         <v>198</v>
@@ -13477,7 +13473,7 @@
         <v>183</v>
       </c>
       <c r="J175" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K175" t="s">
         <v>114</v>
@@ -13489,7 +13485,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>238</v>
       </c>
@@ -13506,7 +13502,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>239</v>
       </c>
@@ -13517,25 +13513,25 @@
         <v>72</v>
       </c>
       <c r="D177" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E177" t="s">
         <v>51</v>
       </c>
       <c r="F177" t="s">
+        <v>232</v>
+      </c>
+      <c r="G177" t="s">
         <v>233</v>
       </c>
-      <c r="G177" t="s">
-        <v>234</v>
-      </c>
       <c r="H177" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I177" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>240</v>
       </c>
@@ -13543,19 +13539,19 @@
         <v>72</v>
       </c>
       <c r="C178" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D178" t="s">
         <v>51</v>
       </c>
       <c r="E178" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F178" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G178" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H178" t="s">
         <v>43</v>
@@ -13570,7 +13566,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>248</v>
       </c>
@@ -13596,7 +13592,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>249</v>
       </c>
@@ -13622,7 +13618,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>250</v>
       </c>
@@ -13648,7 +13644,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>251</v>
       </c>
@@ -13665,90 +13661,85 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>252</v>
       </c>
       <c r="B183" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C183" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E183" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D183" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="F183" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="G183" s="6"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>253</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D184" t="s">
+        <v>230</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F184" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E184" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>254</v>
       </c>
       <c r="B185" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D185" t="s">
+        <v>230</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F185" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="G185" t="s">
         <v>42</v>
       </c>
       <c r="H185" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="I185" t="s">
         <v>238</v>
       </c>
-      <c r="J185" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>255</v>
       </c>
       <c r="B186" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C186" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D186" t="s">
         <v>42</v>
@@ -13757,27 +13748,27 @@
         <v>214</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>256</v>
       </c>
       <c r="B187" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D187" t="s">
+        <v>230</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F187" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="G187" t="s">
         <v>205</v>
@@ -13789,47 +13780,47 @@
         <v>101</v>
       </c>
       <c r="J187" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K187" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L187" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>257</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D188" t="s">
         <v>42</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G188" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>258</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C189" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D189" t="s">
         <v>42</v>
@@ -13838,10 +13829,10 @@
         <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G189" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H189" t="s">
         <v>92</v>
@@ -13850,18 +13841,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>259</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D190" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>55</v>

--- a/DSMCaseReasoning/src/cases.xlsx
+++ b/DSMCaseReasoning/src/cases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26708"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4565347-D89A-4E94-B132-491072D27005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607257D3-B11B-487D-8FB3-706F85AAE912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="6045" windowWidth="22515" windowHeight="12270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="10" r:id="rId1"/>
@@ -1060,10 +1060,10 @@
     <t>the ratio of annual precipitation and annual potential evapotranstream_power_indexration</t>
   </si>
   <si>
-    <t>dem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dem </t>
+    <t>filled_dem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filled_dem </t>
   </si>
 </sst>
 </file>
@@ -1566,20 +1566,20 @@
       <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.73046875" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.265625" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" customWidth="1"/>
-    <col min="10" max="10" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>23</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>24</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>25</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>26</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>27</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>30</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>31</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>32</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>33</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>34</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>35</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>39</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>41</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>42</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>43</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>44</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>45</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>46</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>47</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>51</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>52</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>53</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>54</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>55</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>56</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>57</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>58</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>59</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>60</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>62</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>63</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>64</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>65</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>66</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>67</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>68</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>69</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>71</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>72</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>73</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>74</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>75</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>76</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>78</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>79</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>80</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>81</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>82</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>83</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>84</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>85</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>86</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>87</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>88</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>89</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>103</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>104</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>105</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>106</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>113</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>114</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>115</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>116</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>117</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>118</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>119</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>120</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>121</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>122</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>123</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>124</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>125</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>127</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>128</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>129</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>130</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>131</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>132</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>133</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>134</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>135</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>136</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>138</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>139</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>4718</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>141</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>143</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>144</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>145</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>147</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>658.7</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>149</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>150</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>151</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>152</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>153</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>154</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>155</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>156</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>157</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>158</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>159</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>160</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>166</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>167</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>168</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>169</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>170</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>174</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>175</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>176</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>177</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>178</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>179</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>180</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>181</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>182</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>183</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>184</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>185</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>186</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>187</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>188</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>189</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>190</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>191</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>197</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>198</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>199</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>200</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>201</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>202</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>203</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>204</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>205</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>206</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>207</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>208</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>209</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>210</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>211</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>212</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>213</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>214</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>215</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>216</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>217</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>218</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>219</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>220</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>221</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>222</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>223</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>224</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>225</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>226</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>227</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>228</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>229</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>230</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>231</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>232</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>233</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>234</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>235</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>236</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>237</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>238</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>239</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>240</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>248</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>249</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>250</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>251</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>252</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>87.316000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>253</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>254</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>255</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>256</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>257</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>258</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>259</v>
       </c>
@@ -7677,13 +7677,13 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>228</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>227</v>
       </c>
@@ -7781,37 +7781,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B7A103-8910-40A2-A97F-D6DE2A9F3FC6}">
   <dimension ref="A1:X190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H185" sqref="H185"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.59765625" customWidth="1"/>
-    <col min="3" max="3" width="32.1328125" customWidth="1"/>
-    <col min="4" max="4" width="27.265625" customWidth="1"/>
-    <col min="5" max="5" width="32.86328125" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="40.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.86328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>23</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>24</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>25</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>26</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>27</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>30</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>31</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>32</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>33</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>34</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>35</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>39</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>41</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>42</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>43</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>44</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>45</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>46</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>47</v>
       </c>
@@ -8417,7 +8417,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>51</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>52</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>53</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>54</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>55</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>56</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>57</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>58</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>59</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>60</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>62</v>
       </c>
@@ -8708,7 +8708,7 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>63</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>64</v>
       </c>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>65</v>
       </c>
@@ -8811,7 +8811,7 @@
       <c r="W43" s="14"/>
       <c r="X43" s="14"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>66</v>
       </c>
@@ -8861,7 +8861,7 @@
       <c r="W44" s="14"/>
       <c r="X44" s="14"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>67</v>
       </c>
@@ -8911,7 +8911,7 @@
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>68</v>
       </c>
@@ -8961,7 +8961,7 @@
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>69</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>71</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>72</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>73</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>74</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>75</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>76</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>78</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>79</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>80</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>81</v>
       </c>
@@ -9498,7 +9498,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>82</v>
       </c>
@@ -9562,7 +9562,7 @@
       <c r="W58" s="8"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>83</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="W59" s="9"/>
       <c r="X59" s="8"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>84</v>
       </c>
@@ -9680,7 +9680,7 @@
       <c r="W60" s="9"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>85</v>
       </c>
@@ -9734,7 +9734,7 @@
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>86</v>
       </c>
@@ -9801,7 +9801,7 @@
       <c r="W62" s="8"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>87</v>
       </c>
@@ -9838,7 +9838,7 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>88</v>
       </c>
@@ -9883,7 +9883,7 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>89</v>
       </c>
@@ -9936,7 +9936,7 @@
       <c r="T65" s="9"/>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>103</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>104</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>105</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>106</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>113</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>114</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>115</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>116</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>117</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>118</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>119</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>120</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>121</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>122</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>123</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>124</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>125</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>127</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>128</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>129</v>
       </c>
@@ -10532,7 +10532,7 @@
       <c r="O85" s="9"/>
       <c r="P85" s="11"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>130</v>
       </c>
@@ -10568,7 +10568,7 @@
       <c r="O86" s="9"/>
       <c r="P86" s="11"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>131</v>
       </c>
@@ -10604,7 +10604,7 @@
       <c r="O87" s="9"/>
       <c r="P87" s="11"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>132</v>
       </c>
@@ -10640,7 +10640,7 @@
       <c r="O88" s="9"/>
       <c r="P88" s="11"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>133</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>134</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>135</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>136</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>138</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:24" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>139</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>141</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>143</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>144</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>145</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>147</v>
       </c>
@@ -11049,7 +11049,7 @@
       <c r="N99" s="9"/>
       <c r="O99" s="8"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>149</v>
       </c>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>150</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>151</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>152</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>153</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>154</v>
       </c>
@@ -11230,7 +11230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>155</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>156</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>157</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>158</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>159</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>160</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>166</v>
       </c>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>167</v>
       </c>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>168</v>
       </c>
@@ -11404,7 +11404,7 @@
       </c>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>169</v>
       </c>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>170</v>
       </c>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>174</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>175</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>176</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>177</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>178</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>179</v>
       </c>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="R122" s="15"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>180</v>
       </c>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="R123" s="15"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>181</v>
       </c>
@@ -11879,7 +11879,7 @@
       </c>
       <c r="R124" s="15"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>182</v>
       </c>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="R125" s="15"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>183</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>184</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>185</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>186</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>187</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>188</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>189</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>190</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>191</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>197</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>198</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>199</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>200</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>201</v>
       </c>
@@ -12449,7 +12449,7 @@
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>202</v>
       </c>
@@ -12469,7 +12469,7 @@
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>203</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>204</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>205</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>206</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>207</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>208</v>
       </c>
@@ -12640,7 +12640,7 @@
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>209</v>
       </c>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="Q147" s="7"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>210</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>211</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>212</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>213</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>214</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>215</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>216</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>217</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>218</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>219</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>220</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>221</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>222</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>223</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>224</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>225</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>226</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>227</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>228</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>229</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>230</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>231</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>232</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>233</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>234</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>235</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>236</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>237</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>238</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>239</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>240</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>248</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>249</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>250</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>251</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>252</v>
       </c>
@@ -13682,7 +13682,7 @@
       </c>
       <c r="G183" s="6"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>253</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>254</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>255</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>256</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>257</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>258</v>
       </c>
@@ -13841,7 +13841,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>259</v>
       </c>
